--- a/migration/نسخة من عروسه اكسل.xlsx
+++ b/migration/نسخة من عروسه اكسل.xlsx
@@ -197,15 +197,9 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQGIRcmbSPODkFYvyB4-OnJ44VM7JKNT0dYAiYF1B0iiheY87VplSHzK42dhnLR81DTFMQ&amp;usqp=CAU</t>
   </si>
   <si>
-    <t>حذاء</t>
-  </si>
-  <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSc1qk9lfy4d_i-UjzcRfkVzdlBMvlEMl_IUpdn9i6I5LS4DeL9bwqjtjfcB_Uo7JGxhl0&amp;usqp=CAU</t>
   </si>
   <si>
-    <t>تاج</t>
-  </si>
-  <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR297YcK28oaNd0vaUnkTcIgIRFbxLU3Rn4UqoBjD9GoCP4ByQmcATLNczAAIqehUeuX6E&amp;usqp=CAU</t>
   </si>
   <si>
@@ -365,9 +359,6 @@
     <t>https://sc01.alicdn.com/kf/HTB1lCoQJVXXXXbEXVXXq6xXFXXXh/Autumn-wear-new-dress-coat-jacquard-rabbit.jpg</t>
   </si>
   <si>
-    <t>شال</t>
-  </si>
-  <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTrF7pi8B_b4DDC49pc-E63IWiYzA212ZDpGd7BdQhuWzK8mFFhY4SEUcdzQbrR417u0w8&amp;usqp=CAU</t>
   </si>
   <si>
@@ -488,9 +479,6 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTZ8CoSYlNw0PXotDHqje8DgWbWsqTfHBNMxg&amp;s</t>
   </si>
   <si>
-    <t>شنطه</t>
-  </si>
-  <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTb1DF2ond7HYk7OxYOagm7s0jyjJ7ChwAoH-FfnWyDUbVk9BvgQCKZhcW1gHtCojFjajU&amp;usqp=CAU</t>
   </si>
   <si>
@@ -635,9 +623,6 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTouJ2pb7CssAwtOJ9xIazYiBH5gIvtk7eP6A&amp;s</t>
   </si>
   <si>
-    <t>طرحه</t>
-  </si>
-  <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSiI5eu_F9XMo9LCIG6STNs2uxz0sNQz-hkuyyX-604al_Q99D21g3jXMsdbeZpyNwo8Es&amp;usqp=CAU</t>
   </si>
   <si>
@@ -836,9 +821,6 @@
     <t>https://ksaluxury.com/wp-content/uploads/2024/05/Jadore.png</t>
   </si>
   <si>
-    <t>عطر</t>
-  </si>
-  <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRBzQCQZwxyk6zCI25pNHvuOhJ0WCx2F-8g-xh7IxkxOvey-IjD0EhyNEI3HvkrVGdMK2o&amp;usqp=CAU</t>
   </si>
   <si>
@@ -989,9 +971,6 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSrc7eMTb1OZz5VSKPmbfMMh6JGjAOXzgaxwGBhlYDT2LYuSZ7Ujiv-yCgnMSi9pJLxGB8&amp;usqp=CAU</t>
   </si>
   <si>
-    <t>عقد</t>
-  </si>
-  <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSUsgukob7OJejYLkWlvYq94cwlz7IEcwLDenhD8IvUlsHq4Rpd8VIRm8k68d28BXGMCQU&amp;usqp=CAU</t>
   </si>
   <si>
@@ -1397,9 +1376,6 @@
     <t>https://i.pinimg.com/originals/de/4d/f0/de4df016b5c0af025116ecbd9873c0dc.jpg</t>
   </si>
   <si>
-    <t>مشبك شعر</t>
-  </si>
-  <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSVIBHrsHb68YHso9ItVA7-VzpBVLRQkNa1jNJ3xTd4J4ucR1swG2_Pq5CBB_AAZCqE-hI&amp;usqp=CAU</t>
   </si>
   <si>
@@ -1628,15 +1604,9 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSSGMDQyhFiEzzcUm1IPL4HkW--VlbukEtU3IlRA0MLhNNrwueukcpkoq7BOi0TmEMIRQI&amp;usqp=CAU</t>
   </si>
   <si>
-    <t>اقراط</t>
-  </si>
-  <si>
     <t>https://simplebridesa.com/image/cache/catalog/Photo/Dresses1/Innocentia/Siena%20Collection/Arianna/IMG_0263-300x500h.jpeg</t>
   </si>
   <si>
-    <t>فستان زفاف</t>
-  </si>
-  <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR3QGykrVgXQvXyo2YOFyOuukqIY0gjqufyLPLRZT79bK0gVVip7tjoVjcCM3XhOdFxTcc&amp;usqp=CAU</t>
   </si>
   <si>
@@ -2337,12 +2307,42 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>فستان الزفاف</t>
+  </si>
+  <si>
+    <t>مشبك للشعر</t>
+  </si>
+  <si>
+    <t>أقراط</t>
+  </si>
+  <si>
+    <t>عقد أو قلادة</t>
+  </si>
+  <si>
+    <t>عطر خاص</t>
+  </si>
+  <si>
+    <t>الطرحة</t>
+  </si>
+  <si>
+    <t>حقيبة صغيرة</t>
+  </si>
+  <si>
+    <t>وشاح او شال</t>
+  </si>
+  <si>
+    <t>تاج او اكليل</t>
+  </si>
+  <si>
+    <t>حذاء الزفاف</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2668,13 +2668,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B790"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A551" workbookViewId="0">
-      <selection activeCell="C573" sqref="C573"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="158.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2682,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2690,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2698,7 +2699,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2706,7 +2707,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2714,7 +2715,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2722,7 +2723,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2730,7 +2731,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2738,7 +2739,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2746,7 +2747,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2754,7 +2755,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2762,7 +2763,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2770,7 +2771,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2778,7 +2779,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2786,7 +2787,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2794,7 +2795,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2802,7 +2803,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2810,7 +2811,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2818,7 +2819,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2826,7 +2827,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2834,7 +2835,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2842,7 +2843,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2850,7 +2851,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2858,7 +2859,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2866,7 +2867,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2874,7 +2875,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2882,7 +2883,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2890,7 +2891,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2898,7 +2899,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2906,7 +2907,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2914,7 +2915,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2922,7 +2923,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2930,7 +2931,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2938,7 +2939,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2946,7 +2947,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2954,7 +2955,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2962,7 +2963,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2970,7 +2971,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2978,7 +2979,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2986,7 +2987,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2994,7 +2995,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3002,7 +3003,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3010,7 +3011,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3018,7 +3019,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3026,7 +3027,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3034,7 +3035,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3042,7 +3043,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3050,7 +3051,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3058,7 +3059,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3066,7 +3067,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3074,7 +3075,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3082,7 +3083,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -3090,7 +3091,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -3098,7 +3099,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3106,7 +3107,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -3114,7 +3115,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -3122,7 +3123,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3130,7 +3131,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -3138,7 +3139,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -3146,5852 +3147,5852 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>770</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>769</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>769</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>769</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>769</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>769</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>769</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>769</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>769</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>769</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>769</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>59</v>
+        <v>769</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>59</v>
+        <v>769</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>59</v>
+        <v>769</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>59</v>
+        <v>769</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>59</v>
+        <v>769</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>59</v>
+        <v>769</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>59</v>
+        <v>769</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>59</v>
+        <v>769</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>59</v>
+        <v>769</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>59</v>
+        <v>769</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>59</v>
+        <v>769</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>113</v>
+        <v>768</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B160" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B175" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B176" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B177" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B178" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B179" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B180" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B181" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B182" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B183" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B184" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B185" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B186" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B187" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B188" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B189" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B190" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B191" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B192" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B193" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B194" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B195" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B196" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B197" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B198" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B199" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B200" t="s">
-        <v>154</v>
+        <v>767</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B201" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B202" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B203" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B204" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B205" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B206" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B207" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B208" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B209" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B210" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B211" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B212" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B213" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B214" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B215" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B216" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B217" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B218" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B219" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B220" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B221" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B222" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B223" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B224" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B225" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B226" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B227" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B228" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B229" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B230" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B231" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B232" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B233" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B234" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B235" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B236" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B237" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B238" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B239" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B240" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B241" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B242" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B243" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B244" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B245" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B246" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B247" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B248" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B249" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B250" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B251" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B252" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B253" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B254" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B255" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B256" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B257" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B258" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B259" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B260" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B261" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B262" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B263" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B264" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B265" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B266" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B267" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B268" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B269" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B270" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B271" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B272" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B273" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B274" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B275" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B276" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B277" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B278" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B279" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B280" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B281" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B282" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B283" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B284" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B285" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B286" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B287" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B288" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B289" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B290" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B291" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B292" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B293" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B294" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B295" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B296" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B297" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B298" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B299" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B300" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B301" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B302" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B303" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B304" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B305" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B306" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B307" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B308" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B309" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B310" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B311" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B312" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B313" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B314" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B315" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B316" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B317" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B318" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B319" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B320" t="s">
-        <v>270</v>
+        <v>765</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B321" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B322" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B323" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B324" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B325" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B326" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B327" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B328" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B329" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B330" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B331" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B332" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B333" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B334" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B335" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B336" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B337" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B338" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B339" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B340" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B341" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B342" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B343" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B344" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B345" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B346" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B347" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B348" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B349" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B350" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B351" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B352" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B353" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B354" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B355" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B356" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B357" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B358" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B359" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B360" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B361" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B362" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B363" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B364" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B365" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B366" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B367" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B368" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B369" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B370" t="s">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B371" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B372" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B373" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B374" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B375" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B376" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B377" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B378" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B379" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B380" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B381" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B382" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B383" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B384" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B385" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B386" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B387" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B388" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B389" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B390" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B391" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B392" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B393" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B394" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B395" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B396" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B397" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B398" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B399" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B400" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B401" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B402" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B403" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B404" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B405" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B406" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B407" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B408" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B409" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B410" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B411" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B412" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B413" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B414" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B415" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B416" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B417" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B418" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B419" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B420" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B421" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B422" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B423" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B424" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B425" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B426" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B427" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B428" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B429" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B430" t="s">
-        <v>534</v>
+        <v>763</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B431" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B432" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B433" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B434" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B435" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B436" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B437" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B438" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B439" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B440" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B441" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B442" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B443" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B444" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B445" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B446" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B447" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B448" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B449" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B450" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B451" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B452" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B453" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B454" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B455" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B456" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B457" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B458" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B459" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B460" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B461" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B462" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B463" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B464" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B465" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B466" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B467" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="B468" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="B469" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="B470" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="B471" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B472" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B473" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="B474" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B475" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B476" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B477" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B478" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B479" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B480" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B481" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="B482" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B483" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B484" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B485" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B486" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B487" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B488" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B489" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B490" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B491" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B492" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B493" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B494" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B495" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="B496" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B497" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B498" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="B499" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="B500" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B501" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B502" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B503" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B504" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B505" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B506" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B507" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B508" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B509" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B510" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B511" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B512" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B513" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B514" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B515" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B516" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B517" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B518" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B519" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B520" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B521" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B522" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="B523" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="B524" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B525" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B526" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B527" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B528" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B529" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B530" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B531" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B532" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B533" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="B534" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="B535" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="B536" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B537" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B538" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B539" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B540" t="s">
-        <v>457</v>
+        <v>762</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B541" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="B542" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="B543" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="B544" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="B545" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="B546" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="B547" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="B548" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="B549" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="B550" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="B551" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="B552" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="B553" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="B554" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="B555" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="B556" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="B557" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="B558" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="B559" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="B560" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="B561" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="B562" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="B563" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="B564" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="B565" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="B566" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="B567" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="B568" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="B569" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="B570" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="B571" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="B572" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="B573" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="B574" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="B575" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="B576" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="B577" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="B578" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="B579" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="B580" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="B581" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="B582" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="B583" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="B584" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="B585" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="B586" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="B587" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="B588" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="B589" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="B590" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="B591" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="B592" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="B593" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="B594" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="B595" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="B596" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="B597" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="B598" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="B599" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="B600" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="B601" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="B602" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="B603" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="B604" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="B605" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="B606" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="B607" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="B608" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="B609" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="B610" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="B611" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="B612" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="B613" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="B614" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="B615" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="B616" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="B617" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="B618" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="B619" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="B620" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="B621" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="B622" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="B623" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="B624" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="B625" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="B626" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="B627" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="B628" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="B629" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="B630" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="B631" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="B632" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="B633" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="B634" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="B635" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="B636" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="B637" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="B638" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="B639" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="B640" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="B641" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="B642" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="B643" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="B644" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="B645" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="B646" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="B647" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="B648" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="B649" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="B650" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="B651" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B652" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="B653" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="B654" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="B655" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="B656" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="B657" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="B658" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="B659" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="B660" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="B661" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="B662" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="B663" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="B664" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="B665" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="B666" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="B667" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="B668" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="B669" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="B670" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B671" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="B672" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="B673" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="B674" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B675" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="B676" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="B677" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="B678" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="B679" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="B680" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="B681" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="B682" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="B683" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="B684" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="B685" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="B686" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="B687" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="B688" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="B689" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="B690" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="B691" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="B692" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="B693" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="B694" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" s="2" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="B695" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" s="2" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="B696" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="B697" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B698" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="B699" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="B700" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="B701" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="B702" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="B703" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="B704" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="B705" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="B706" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="B707" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="B708" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="B709" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="B710" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B711" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="B712" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="B713" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="B714" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="B715" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="B716" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="B717" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="B718" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="B719" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="B720" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="B721" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="B722" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B723" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="B724" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="B725" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726" s="1" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="B726" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="B727" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="B728" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="B729" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="B730" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="B731" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="B732" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="B733" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734" s="1" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B734" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="B735" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736" s="1" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="B736" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A737" s="1" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="B737" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738" s="1" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="B738" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A739" s="1" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="B739" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740" s="1" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="B740" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741" s="1" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="B741" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742" s="1" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="B742" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" s="1" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="B743" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A744" s="1" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="B744" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745" s="1" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="B745" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A746" s="1" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="B746" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" s="1" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="B747" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" s="1" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="B748" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749" s="1" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="B749" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750" s="1" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="B750" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751" s="1" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="B751" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A752" s="1" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="B752" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A753" s="1" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B753" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A754" s="1" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="B754" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A755" s="1" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="B755" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A756" s="1" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="B756" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A757" s="1" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="B757" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A758" s="1" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="B758" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A759" s="1" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="B759" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A760" s="1" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="B760" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A761" s="1" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="B761" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A762" s="1" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="B762" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A763" s="1" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="B763" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A764" s="1" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="B764" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A765" s="1" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="B765" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A766" s="1" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="B766" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A767" s="1" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="B767" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A768" s="1" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="B768" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A769" s="1" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="B769" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A770" s="1" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="B770" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A771" s="1" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="B771" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A772" s="1" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="B772" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A773" s="1" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="B773" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A774" s="1" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B774" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A775" s="1" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="B775" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A776" s="1" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="B776" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A777" s="1" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="B777" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A778" s="1" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="B778" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A779" s="1" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="B779" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A780" s="1" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="B780" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A781" s="1" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="B781" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A782" s="1" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="B782" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A783" s="1" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="B783" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A784" s="1" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="B784" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A785" s="1" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="B785" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A786" s="1" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="B786" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A787" s="1" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="B787" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A788" s="1" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="B788" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A789" s="1" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="B789" t="s">
-        <v>536</v>
+        <v>761</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
     </row>
   </sheetData>

--- a/migration/نسخة من عروسه اكسل.xlsx
+++ b/migration/نسخة من عروسه اكسل.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ENGMOHAMED\Flutter\zaghrota\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elksass\Desktop\p\zaghrota_backEnd\migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22247DF7-9325-48AD-893F-240F1B4C52A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25845" windowHeight="13935"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25840" windowHeight="13933" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -2342,7 +2343,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2665,20 +2666,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B790"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A779" workbookViewId="0">
+      <selection activeCell="A791" sqref="A791"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.35" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="158.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="158.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2686,7 +2687,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2694,7 +2695,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2702,7 +2703,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2710,7 +2711,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2718,7 +2719,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2734,7 +2735,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2742,7 +2743,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2750,7 +2751,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2758,7 +2759,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2766,7 +2767,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2774,7 +2775,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2782,7 +2783,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2790,7 +2791,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2798,7 +2799,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2806,7 +2807,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2814,7 +2815,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2822,7 +2823,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2830,7 +2831,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2838,7 +2839,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -2846,7 +2847,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2854,7 +2855,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -2862,7 +2863,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2870,7 +2871,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -2878,7 +2879,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2886,7 +2887,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -2894,7 +2895,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -2902,7 +2903,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -2910,7 +2911,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -2918,7 +2919,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -2926,7 +2927,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -2934,7 +2935,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -2942,7 +2943,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -2950,7 +2951,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -2958,7 +2959,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -2966,7 +2967,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -2974,7 +2975,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,7 +2983,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
@@ -2990,7 +2991,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -2998,7 +2999,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
@@ -3006,7 +3007,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
@@ -3014,7 +3015,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
@@ -3022,7 +3023,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
@@ -3030,7 +3031,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
@@ -3038,7 +3039,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
@@ -3046,7 +3047,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
@@ -3054,7 +3055,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
@@ -3062,7 +3063,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
@@ -3070,7 +3071,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
@@ -3078,7 +3079,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
@@ -3086,7 +3087,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
@@ -3094,7 +3095,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
@@ -3102,7 +3103,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
@@ -3110,7 +3111,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
@@ -3118,7 +3119,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
@@ -3126,7 +3127,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
@@ -3134,7 +3135,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -3142,7 +3143,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -3150,7 +3151,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
@@ -3158,7 +3159,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
@@ -3166,7 +3167,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
@@ -3174,7 +3175,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
@@ -3182,7 +3183,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>61</v>
       </c>
@@ -3190,7 +3191,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>62</v>
       </c>
@@ -3198,7 +3199,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>63</v>
       </c>
@@ -3206,7 +3207,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>64</v>
       </c>
@@ -3214,7 +3215,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
@@ -3222,7 +3223,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>66</v>
       </c>
@@ -3230,7 +3231,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>67</v>
       </c>
@@ -3238,7 +3239,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>68</v>
       </c>
@@ -3246,7 +3247,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
@@ -3254,7 +3255,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>70</v>
       </c>
@@ -3262,7 +3263,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>71</v>
       </c>
@@ -3270,7 +3271,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>72</v>
       </c>
@@ -3278,7 +3279,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>73</v>
       </c>
@@ -3286,7 +3287,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>74</v>
       </c>
@@ -3294,7 +3295,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>75</v>
       </c>
@@ -3302,7 +3303,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>76</v>
       </c>
@@ -3310,7 +3311,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>77</v>
       </c>
@@ -3318,7 +3319,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>78</v>
       </c>
@@ -3326,7 +3327,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -3334,7 +3335,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
@@ -3342,7 +3343,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
@@ -3350,7 +3351,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
@@ -3358,7 +3359,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
@@ -3366,7 +3367,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
@@ -3374,7 +3375,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
@@ -3382,7 +3383,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,7 +3391,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
@@ -3398,7 +3399,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
@@ -3406,7 +3407,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
@@ -3414,7 +3415,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
@@ -3422,7 +3423,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
@@ -3430,7 +3431,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
@@ -3438,7 +3439,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
@@ -3446,7 +3447,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
@@ -3454,7 +3455,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
@@ -3462,7 +3463,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
@@ -3470,7 +3471,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
@@ -3478,7 +3479,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
@@ -3486,7 +3487,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
@@ -3494,7 +3495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
@@ -3502,7 +3503,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
@@ -3510,7 +3511,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
@@ -3518,7 +3519,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
@@ -3526,7 +3527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
@@ -3534,7 +3535,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
@@ -3542,7 +3543,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
@@ -3550,7 +3551,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
@@ -3558,7 +3559,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
@@ -3566,7 +3567,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
@@ -3574,7 +3575,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
@@ -3582,7 +3583,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
@@ -3590,7 +3591,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
@@ -3598,7 +3599,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
@@ -3606,7 +3607,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
@@ -3614,7 +3615,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
@@ -3622,7 +3623,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
@@ -3630,7 +3631,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
@@ -3638,7 +3639,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
@@ -3646,7 +3647,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
@@ -3654,7 +3655,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
@@ -3662,7 +3663,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
@@ -3670,7 +3671,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
@@ -3678,7 +3679,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
@@ -3686,7 +3687,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
@@ -3694,7 +3695,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
@@ -3702,7 +3703,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
@@ -3710,7 +3711,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
@@ -3718,7 +3719,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
@@ -3726,7 +3727,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
@@ -3734,7 +3735,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
@@ -3742,7 +3743,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
@@ -3750,7 +3751,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
@@ -3758,7 +3759,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
@@ -3766,7 +3767,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
@@ -3774,7 +3775,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
@@ -3782,7 +3783,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
@@ -3790,7 +3791,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
@@ -3798,7 +3799,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
@@ -3806,7 +3807,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
@@ -3814,7 +3815,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
@@ -3822,7 +3823,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
@@ -3830,7 +3831,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
@@ -3838,7 +3839,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
@@ -3846,7 +3847,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
@@ -3854,7 +3855,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
@@ -3862,7 +3863,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
@@ -3870,7 +3871,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
@@ -3878,7 +3879,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
@@ -3886,7 +3887,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
@@ -3894,7 +3895,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
@@ -3902,7 +3903,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
@@ -3910,7 +3911,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
@@ -3918,7 +3919,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
@@ -3926,7 +3927,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
@@ -3934,7 +3935,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
@@ -3942,7 +3943,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
@@ -3950,7 +3951,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>155</v>
       </c>
@@ -3958,7 +3959,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>159</v>
       </c>
@@ -3966,7 +3967,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>160</v>
       </c>
@@ -3974,7 +3975,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>161</v>
       </c>
@@ -3982,7 +3983,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>162</v>
       </c>
@@ -3990,7 +3991,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>163</v>
       </c>
@@ -3998,7 +3999,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>164</v>
       </c>
@@ -4006,7 +4007,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>165</v>
       </c>
@@ -4014,7 +4015,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>166</v>
       </c>
@@ -4022,7 +4023,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>167</v>
       </c>
@@ -4030,7 +4031,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>168</v>
       </c>
@@ -4038,7 +4039,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>169</v>
       </c>
@@ -4046,7 +4047,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>170</v>
       </c>
@@ -4054,7 +4055,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>171</v>
       </c>
@@ -4062,7 +4063,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>172</v>
       </c>
@@ -4070,7 +4071,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>154</v>
       </c>
@@ -4078,7 +4079,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>173</v>
       </c>
@@ -4086,7 +4087,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>174</v>
       </c>
@@ -4094,7 +4095,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>175</v>
       </c>
@@ -4102,7 +4103,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>176</v>
       </c>
@@ -4110,7 +4111,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>177</v>
       </c>
@@ -4118,7 +4119,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>178</v>
       </c>
@@ -4126,7 +4127,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>179</v>
       </c>
@@ -4134,7 +4135,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>180</v>
       </c>
@@ -4142,7 +4143,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>181</v>
       </c>
@@ -4150,7 +4151,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>182</v>
       </c>
@@ -4158,7 +4159,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>183</v>
       </c>
@@ -4166,7 +4167,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>184</v>
       </c>
@@ -4174,7 +4175,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>185</v>
       </c>
@@ -4182,7 +4183,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>186</v>
       </c>
@@ -4190,7 +4191,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>187</v>
       </c>
@@ -4198,7 +4199,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>188</v>
       </c>
@@ -4206,7 +4207,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>189</v>
       </c>
@@ -4214,7 +4215,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>190</v>
       </c>
@@ -4222,7 +4223,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>191</v>
       </c>
@@ -4230,7 +4231,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>192</v>
       </c>
@@ -4238,7 +4239,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>193</v>
       </c>
@@ -4246,7 +4247,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>194</v>
       </c>
@@ -4254,7 +4255,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>195</v>
       </c>
@@ -4262,7 +4263,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>196</v>
       </c>
@@ -4270,7 +4271,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>197</v>
       </c>
@@ -4278,7 +4279,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>198</v>
       </c>
@@ -4286,7 +4287,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>199</v>
       </c>
@@ -4294,7 +4295,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>200</v>
       </c>
@@ -4302,7 +4303,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>201</v>
       </c>
@@ -4310,7 +4311,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>202</v>
       </c>
@@ -4318,7 +4319,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>203</v>
       </c>
@@ -4326,7 +4327,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>204</v>
       </c>
@@ -4334,7 +4335,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>205</v>
       </c>
@@ -4342,7 +4343,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>206</v>
       </c>
@@ -4350,7 +4351,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>207</v>
       </c>
@@ -4358,7 +4359,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>200</v>
       </c>
@@ -4366,7 +4367,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>208</v>
       </c>
@@ -4374,7 +4375,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>209</v>
       </c>
@@ -4382,7 +4383,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>210</v>
       </c>
@@ -4390,7 +4391,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>211</v>
       </c>
@@ -4398,7 +4399,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>212</v>
       </c>
@@ -4406,7 +4407,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>213</v>
       </c>
@@ -4414,7 +4415,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>214</v>
       </c>
@@ -4422,7 +4423,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>215</v>
       </c>
@@ -4430,7 +4431,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>216</v>
       </c>
@@ -4438,7 +4439,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>217</v>
       </c>
@@ -4446,7 +4447,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>218</v>
       </c>
@@ -4454,7 +4455,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>219</v>
       </c>
@@ -4462,7 +4463,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>220</v>
       </c>
@@ -4470,7 +4471,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>221</v>
       </c>
@@ -4478,7 +4479,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>222</v>
       </c>
@@ -4486,7 +4487,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>223</v>
       </c>
@@ -4494,7 +4495,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>224</v>
       </c>
@@ -4502,7 +4503,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>225</v>
       </c>
@@ -4510,7 +4511,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>226</v>
       </c>
@@ -4518,7 +4519,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>227</v>
       </c>
@@ -4526,7 +4527,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>228</v>
       </c>
@@ -4534,7 +4535,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>229</v>
       </c>
@@ -4542,7 +4543,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>230</v>
       </c>
@@ -4550,7 +4551,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>231</v>
       </c>
@@ -4558,7 +4559,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>232</v>
       </c>
@@ -4566,7 +4567,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>199</v>
       </c>
@@ -4574,7 +4575,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>204</v>
       </c>
@@ -4582,7 +4583,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>233</v>
       </c>
@@ -4590,7 +4591,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>234</v>
       </c>
@@ -4598,7 +4599,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>235</v>
       </c>
@@ -4606,7 +4607,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>236</v>
       </c>
@@ -4614,7 +4615,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>237</v>
       </c>
@@ -4622,7 +4623,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>238</v>
       </c>
@@ -4630,7 +4631,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>239</v>
       </c>
@@ -4638,7 +4639,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>240</v>
       </c>
@@ -4646,7 +4647,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>241</v>
       </c>
@@ -4654,7 +4655,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>242</v>
       </c>
@@ -4662,7 +4663,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>243</v>
       </c>
@@ -4670,7 +4671,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>244</v>
       </c>
@@ -4678,7 +4679,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>245</v>
       </c>
@@ -4686,7 +4687,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>246</v>
       </c>
@@ -4694,7 +4695,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>218</v>
       </c>
@@ -4702,7 +4703,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>247</v>
       </c>
@@ -4710,7 +4711,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>248</v>
       </c>
@@ -4718,7 +4719,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>249</v>
       </c>
@@ -4726,7 +4727,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>250</v>
       </c>
@@ -4734,7 +4735,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>251</v>
       </c>
@@ -4742,7 +4743,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>252</v>
       </c>
@@ -4750,7 +4751,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>253</v>
       </c>
@@ -4758,7 +4759,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>254</v>
       </c>
@@ -4766,7 +4767,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>255</v>
       </c>
@@ -4774,7 +4775,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>256</v>
       </c>
@@ -4782,7 +4783,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>257</v>
       </c>
@@ -4790,7 +4791,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>258</v>
       </c>
@@ -4798,7 +4799,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>259</v>
       </c>
@@ -4806,7 +4807,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>260</v>
       </c>
@@ -4814,7 +4815,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>261</v>
       </c>
@@ -4822,7 +4823,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>262</v>
       </c>
@@ -4830,7 +4831,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>263</v>
       </c>
@@ -4838,7 +4839,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>264</v>
       </c>
@@ -4846,7 +4847,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>265</v>
       </c>
@@ -4854,7 +4855,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>266</v>
       </c>
@@ -4862,7 +4863,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>267</v>
       </c>
@@ -4870,7 +4871,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>268</v>
       </c>
@@ -4878,7 +4879,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>269</v>
       </c>
@@ -4886,7 +4887,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>270</v>
       </c>
@@ -4894,7 +4895,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>271</v>
       </c>
@@ -4902,7 +4903,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>272</v>
       </c>
@@ -4910,7 +4911,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>273</v>
       </c>
@@ -4918,7 +4919,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>274</v>
       </c>
@@ -4926,7 +4927,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>275</v>
       </c>
@@ -4934,7 +4935,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>276</v>
       </c>
@@ -4942,7 +4943,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>277</v>
       </c>
@@ -4950,7 +4951,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>278</v>
       </c>
@@ -4958,7 +4959,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>279</v>
       </c>
@@ -4966,7 +4967,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>280</v>
       </c>
@@ -4974,7 +4975,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>281</v>
       </c>
@@ -4982,7 +4983,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>282</v>
       </c>
@@ -4990,7 +4991,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>283</v>
       </c>
@@ -4998,7 +4999,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>284</v>
       </c>
@@ -5006,7 +5007,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>285</v>
       </c>
@@ -5014,7 +5015,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>286</v>
       </c>
@@ -5022,7 +5023,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>287</v>
       </c>
@@ -5030,7 +5031,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>288</v>
       </c>
@@ -5038,7 +5039,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>289</v>
       </c>
@@ -5046,7 +5047,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>290</v>
       </c>
@@ -5054,7 +5055,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>291</v>
       </c>
@@ -5062,7 +5063,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>292</v>
       </c>
@@ -5070,7 +5071,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>293</v>
       </c>
@@ -5078,7 +5079,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>294</v>
       </c>
@@ -5086,7 +5087,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>295</v>
       </c>
@@ -5094,7 +5095,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>296</v>
       </c>
@@ -5102,7 +5103,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>297</v>
       </c>
@@ -5110,7 +5111,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>298</v>
       </c>
@@ -5118,7 +5119,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>299</v>
       </c>
@@ -5126,7 +5127,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>300</v>
       </c>
@@ -5134,7 +5135,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>301</v>
       </c>
@@ -5142,7 +5143,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>302</v>
       </c>
@@ -5150,7 +5151,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>303</v>
       </c>
@@ -5158,7 +5159,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>304</v>
       </c>
@@ -5166,7 +5167,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>305</v>
       </c>
@@ -5174,7 +5175,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>306</v>
       </c>
@@ -5182,7 +5183,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>307</v>
       </c>
@@ -5190,7 +5191,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>308</v>
       </c>
@@ -5198,7 +5199,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>309</v>
       </c>
@@ -5206,7 +5207,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>310</v>
       </c>
@@ -5214,7 +5215,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>311</v>
       </c>
@@ -5222,7 +5223,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>312</v>
       </c>
@@ -5230,7 +5231,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>313</v>
       </c>
@@ -5238,7 +5239,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>314</v>
       </c>
@@ -5246,7 +5247,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>315</v>
       </c>
@@ -5254,7 +5255,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>315</v>
       </c>
@@ -5262,7 +5263,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>316</v>
       </c>
@@ -5270,7 +5271,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>317</v>
       </c>
@@ -5278,7 +5279,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>318</v>
       </c>
@@ -5286,7 +5287,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>319</v>
       </c>
@@ -5294,7 +5295,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>320</v>
       </c>
@@ -5302,7 +5303,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>321</v>
       </c>
@@ -5310,7 +5311,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>322</v>
       </c>
@@ -5318,7 +5319,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>323</v>
       </c>
@@ -5326,7 +5327,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>324</v>
       </c>
@@ -5334,7 +5335,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>325</v>
       </c>
@@ -5342,7 +5343,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>326</v>
       </c>
@@ -5350,7 +5351,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>327</v>
       </c>
@@ -5358,7 +5359,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>328</v>
       </c>
@@ -5366,7 +5367,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>329</v>
       </c>
@@ -5374,7 +5375,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>330</v>
       </c>
@@ -5382,7 +5383,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>331</v>
       </c>
@@ -5390,7 +5391,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>332</v>
       </c>
@@ -5398,7 +5399,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>333</v>
       </c>
@@ -5406,7 +5407,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>334</v>
       </c>
@@ -5414,7 +5415,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>335</v>
       </c>
@@ -5422,7 +5423,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>336</v>
       </c>
@@ -5430,7 +5431,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>336</v>
       </c>
@@ -5438,7 +5439,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>337</v>
       </c>
@@ -5446,7 +5447,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>338</v>
       </c>
@@ -5454,7 +5455,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>339</v>
       </c>
@@ -5462,7 +5463,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>340</v>
       </c>
@@ -5470,7 +5471,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>341</v>
       </c>
@@ -5478,7 +5479,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>342</v>
       </c>
@@ -5486,7 +5487,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>343</v>
       </c>
@@ -5494,7 +5495,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>344</v>
       </c>
@@ -5502,7 +5503,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>345</v>
       </c>
@@ -5510,7 +5511,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>346</v>
       </c>
@@ -5518,7 +5519,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>346</v>
       </c>
@@ -5526,7 +5527,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>347</v>
       </c>
@@ -5534,7 +5535,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>348</v>
       </c>
@@ -5542,7 +5543,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>349</v>
       </c>
@@ -5550,7 +5551,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>350</v>
       </c>
@@ -5558,7 +5559,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>351</v>
       </c>
@@ -5566,7 +5567,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>352</v>
       </c>
@@ -5574,7 +5575,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>353</v>
       </c>
@@ -5582,7 +5583,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>354</v>
       </c>
@@ -5590,7 +5591,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>355</v>
       </c>
@@ -5598,7 +5599,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>356</v>
       </c>
@@ -5606,7 +5607,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>357</v>
       </c>
@@ -5614,7 +5615,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>358</v>
       </c>
@@ -5622,7 +5623,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>359</v>
       </c>
@@ -5630,7 +5631,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>360</v>
       </c>
@@ -5638,7 +5639,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>361</v>
       </c>
@@ -5646,7 +5647,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>362</v>
       </c>
@@ -5654,7 +5655,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>363</v>
       </c>
@@ -5662,7 +5663,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>364</v>
       </c>
@@ -5670,7 +5671,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>365</v>
       </c>
@@ -5678,7 +5679,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>366</v>
       </c>
@@ -5686,7 +5687,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>367</v>
       </c>
@@ -5694,7 +5695,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>368</v>
       </c>
@@ -5702,7 +5703,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>369</v>
       </c>
@@ -5710,7 +5711,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>370</v>
       </c>
@@ -5718,7 +5719,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>371</v>
       </c>
@@ -5726,7 +5727,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>372</v>
       </c>
@@ -5734,7 +5735,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>373</v>
       </c>
@@ -5742,7 +5743,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>374</v>
       </c>
@@ -5750,7 +5751,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>374</v>
       </c>
@@ -5758,7 +5759,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>375</v>
       </c>
@@ -5766,7 +5767,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>376</v>
       </c>
@@ -5774,7 +5775,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>377</v>
       </c>
@@ -5782,7 +5783,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>378</v>
       </c>
@@ -5790,7 +5791,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>379</v>
       </c>
@@ -5798,7 +5799,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>380</v>
       </c>
@@ -5806,7 +5807,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>381</v>
       </c>
@@ -5814,7 +5815,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>382</v>
       </c>
@@ -5822,7 +5823,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>383</v>
       </c>
@@ -5830,7 +5831,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>384</v>
       </c>
@@ -5838,7 +5839,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>382</v>
       </c>
@@ -5846,7 +5847,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>385</v>
       </c>
@@ -5854,7 +5855,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>386</v>
       </c>
@@ -5862,7 +5863,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>387</v>
       </c>
@@ -5870,7 +5871,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>388</v>
       </c>
@@ -5878,7 +5879,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>389</v>
       </c>
@@ -5886,7 +5887,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>390</v>
       </c>
@@ -5894,7 +5895,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>391</v>
       </c>
@@ -5902,7 +5903,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>392</v>
       </c>
@@ -5910,7 +5911,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>393</v>
       </c>
@@ -5918,7 +5919,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>394</v>
       </c>
@@ -5926,7 +5927,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>395</v>
       </c>
@@ -5934,7 +5935,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>396</v>
       </c>
@@ -5942,7 +5943,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>397</v>
       </c>
@@ -5950,7 +5951,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>398</v>
       </c>
@@ -5958,7 +5959,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>399</v>
       </c>
@@ -5966,7 +5967,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>400</v>
       </c>
@@ -5974,7 +5975,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>401</v>
       </c>
@@ -5982,7 +5983,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>402</v>
       </c>
@@ -5990,7 +5991,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>403</v>
       </c>
@@ -5998,7 +5999,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>404</v>
       </c>
@@ -6006,7 +6007,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>405</v>
       </c>
@@ -6014,7 +6015,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>406</v>
       </c>
@@ -6022,7 +6023,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>407</v>
       </c>
@@ -6030,7 +6031,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>408</v>
       </c>
@@ -6038,7 +6039,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>409</v>
       </c>
@@ -6046,7 +6047,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>410</v>
       </c>
@@ -6054,7 +6055,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>363</v>
       </c>
@@ -6062,7 +6063,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>411</v>
       </c>
@@ -6070,7 +6071,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>412</v>
       </c>
@@ -6078,7 +6079,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>413</v>
       </c>
@@ -6086,7 +6087,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>414</v>
       </c>
@@ -6094,7 +6095,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>415</v>
       </c>
@@ -6102,7 +6103,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>416</v>
       </c>
@@ -6110,7 +6111,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>417</v>
       </c>
@@ -6118,7 +6119,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>418</v>
       </c>
@@ -6126,7 +6127,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>420</v>
       </c>
@@ -6134,7 +6135,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>421</v>
       </c>
@@ -6142,7 +6143,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>422</v>
       </c>
@@ -6150,7 +6151,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>423</v>
       </c>
@@ -6158,7 +6159,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>424</v>
       </c>
@@ -6166,7 +6167,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>425</v>
       </c>
@@ -6174,7 +6175,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>426</v>
       </c>
@@ -6182,7 +6183,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>427</v>
       </c>
@@ -6190,7 +6191,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>428</v>
       </c>
@@ -6198,7 +6199,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>429</v>
       </c>
@@ -6206,7 +6207,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>430</v>
       </c>
@@ -6214,7 +6215,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>431</v>
       </c>
@@ -6222,7 +6223,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>432</v>
       </c>
@@ -6230,7 +6231,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>433</v>
       </c>
@@ -6238,7 +6239,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>434</v>
       </c>
@@ -6246,7 +6247,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>435</v>
       </c>
@@ -6254,7 +6255,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>436</v>
       </c>
@@ -6262,7 +6263,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>437</v>
       </c>
@@ -6270,7 +6271,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>438</v>
       </c>
@@ -6278,7 +6279,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>439</v>
       </c>
@@ -6286,7 +6287,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>440</v>
       </c>
@@ -6294,7 +6295,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>441</v>
       </c>
@@ -6302,7 +6303,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>442</v>
       </c>
@@ -6310,7 +6311,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>443</v>
       </c>
@@ -6318,7 +6319,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>444</v>
       </c>
@@ -6326,7 +6327,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>445</v>
       </c>
@@ -6334,7 +6335,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>446</v>
       </c>
@@ -6342,7 +6343,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>447</v>
       </c>
@@ -6350,7 +6351,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>448</v>
       </c>
@@ -6358,7 +6359,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>449</v>
       </c>
@@ -6366,7 +6367,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>450</v>
       </c>
@@ -6374,7 +6375,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>451</v>
       </c>
@@ -6382,7 +6383,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>452</v>
       </c>
@@ -6390,7 +6391,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>453</v>
       </c>
@@ -6398,7 +6399,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>454</v>
       </c>
@@ -6406,7 +6407,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>455</v>
       </c>
@@ -6414,7 +6415,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>456</v>
       </c>
@@ -6422,7 +6423,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>457</v>
       </c>
@@ -6430,7 +6431,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>458</v>
       </c>
@@ -6438,7 +6439,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>459</v>
       </c>
@@ -6446,7 +6447,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>460</v>
       </c>
@@ -6454,7 +6455,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>461</v>
       </c>
@@ -6462,7 +6463,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>462</v>
       </c>
@@ -6470,7 +6471,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>463</v>
       </c>
@@ -6478,7 +6479,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>464</v>
       </c>
@@ -6486,7 +6487,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>465</v>
       </c>
@@ -6494,7 +6495,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>466</v>
       </c>
@@ -6502,7 +6503,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>467</v>
       </c>
@@ -6510,7 +6511,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>468</v>
       </c>
@@ -6518,7 +6519,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>469</v>
       </c>
@@ -6526,7 +6527,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>470</v>
       </c>
@@ -6534,7 +6535,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>471</v>
       </c>
@@ -6542,7 +6543,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>472</v>
       </c>
@@ -6550,7 +6551,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>473</v>
       </c>
@@ -6558,7 +6559,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>474</v>
       </c>
@@ -6566,7 +6567,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>475</v>
       </c>
@@ -6574,7 +6575,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>476</v>
       </c>
@@ -6582,7 +6583,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>473</v>
       </c>
@@ -6590,7 +6591,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>475</v>
       </c>
@@ -6598,7 +6599,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>476</v>
       </c>
@@ -6606,7 +6607,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>477</v>
       </c>
@@ -6614,7 +6615,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>478</v>
       </c>
@@ -6622,7 +6623,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>479</v>
       </c>
@@ -6630,7 +6631,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>480</v>
       </c>
@@ -6638,7 +6639,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>481</v>
       </c>
@@ -6646,7 +6647,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>482</v>
       </c>
@@ -6654,7 +6655,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>483</v>
       </c>
@@ -6662,7 +6663,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>484</v>
       </c>
@@ -6670,7 +6671,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>485</v>
       </c>
@@ -6678,7 +6679,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>486</v>
       </c>
@@ -6686,7 +6687,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>487</v>
       </c>
@@ -6694,7 +6695,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>488</v>
       </c>
@@ -6702,7 +6703,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>489</v>
       </c>
@@ -6710,7 +6711,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>490</v>
       </c>
@@ -6718,7 +6719,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>491</v>
       </c>
@@ -6726,7 +6727,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
         <v>492</v>
       </c>
@@ -6734,7 +6735,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>493</v>
       </c>
@@ -6742,7 +6743,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>494</v>
       </c>
@@ -6750,7 +6751,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>495</v>
       </c>
@@ -6758,7 +6759,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
         <v>496</v>
       </c>
@@ -6766,7 +6767,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>497</v>
       </c>
@@ -6774,7 +6775,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
         <v>498</v>
       </c>
@@ -6782,7 +6783,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>499</v>
       </c>
@@ -6790,7 +6791,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>500</v>
       </c>
@@ -6798,7 +6799,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
         <v>501</v>
       </c>
@@ -6806,7 +6807,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
         <v>502</v>
       </c>
@@ -6814,7 +6815,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
         <v>503</v>
       </c>
@@ -6822,7 +6823,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
         <v>504</v>
       </c>
@@ -6830,7 +6831,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
         <v>505</v>
       </c>
@@ -6838,7 +6839,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
         <v>506</v>
       </c>
@@ -6846,7 +6847,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
         <v>507</v>
       </c>
@@ -6854,7 +6855,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
         <v>508</v>
       </c>
@@ -6862,7 +6863,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
         <v>509</v>
       </c>
@@ -6870,7 +6871,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
         <v>510</v>
       </c>
@@ -6878,7 +6879,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
         <v>511</v>
       </c>
@@ -6886,7 +6887,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
         <v>512</v>
       </c>
@@ -6894,7 +6895,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
         <v>513</v>
       </c>
@@ -6902,7 +6903,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
         <v>514</v>
       </c>
@@ -6910,7 +6911,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
         <v>515</v>
       </c>
@@ -6918,7 +6919,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
         <v>516</v>
       </c>
@@ -6926,7 +6927,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
         <v>517</v>
       </c>
@@ -6934,7 +6935,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
         <v>518</v>
       </c>
@@ -6942,7 +6943,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
         <v>519</v>
       </c>
@@ -6950,7 +6951,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
         <v>520</v>
       </c>
@@ -6958,7 +6959,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
         <v>521</v>
       </c>
@@ -6966,7 +6967,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
         <v>522</v>
       </c>
@@ -6974,7 +6975,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
         <v>523</v>
       </c>
@@ -6982,7 +6983,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
         <v>524</v>
       </c>
@@ -6990,7 +6991,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
         <v>525</v>
       </c>
@@ -6998,7 +6999,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
         <v>526</v>
       </c>
@@ -7006,7 +7007,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
         <v>527</v>
       </c>
@@ -7014,7 +7015,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
         <v>528</v>
       </c>
@@ -7022,7 +7023,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
         <v>529</v>
       </c>
@@ -7030,7 +7031,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
         <v>530</v>
       </c>
@@ -7038,7 +7039,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
         <v>531</v>
       </c>
@@ -7046,7 +7047,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
         <v>532</v>
       </c>
@@ -7054,7 +7055,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
         <v>533</v>
       </c>
@@ -7062,7 +7063,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
         <v>534</v>
       </c>
@@ -7070,7 +7071,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
         <v>535</v>
       </c>
@@ -7078,7 +7079,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
         <v>536</v>
       </c>
@@ -7086,7 +7087,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
         <v>537</v>
       </c>
@@ -7094,7 +7095,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
         <v>538</v>
       </c>
@@ -7102,7 +7103,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
         <v>539</v>
       </c>
@@ -7110,7 +7111,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
         <v>540</v>
       </c>
@@ -7118,7 +7119,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
         <v>541</v>
       </c>
@@ -7126,7 +7127,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
         <v>542</v>
       </c>
@@ -7134,7 +7135,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
         <v>543</v>
       </c>
@@ -7142,7 +7143,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
         <v>544</v>
       </c>
@@ -7150,7 +7151,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
         <v>545</v>
       </c>
@@ -7158,7 +7159,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
         <v>546</v>
       </c>
@@ -7166,7 +7167,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
         <v>547</v>
       </c>
@@ -7174,7 +7175,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
         <v>548</v>
       </c>
@@ -7182,7 +7183,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
         <v>549</v>
       </c>
@@ -7190,7 +7191,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
         <v>550</v>
       </c>
@@ -7198,7 +7199,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
         <v>551</v>
       </c>
@@ -7206,7 +7207,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
         <v>552</v>
       </c>
@@ -7214,7 +7215,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
         <v>553</v>
       </c>
@@ -7222,7 +7223,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
         <v>554</v>
       </c>
@@ -7230,7 +7231,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
         <v>555</v>
       </c>
@@ -7238,7 +7239,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
         <v>556</v>
       </c>
@@ -7246,7 +7247,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
         <v>557</v>
       </c>
@@ -7254,7 +7255,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
         <v>558</v>
       </c>
@@ -7262,7 +7263,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
         <v>559</v>
       </c>
@@ -7270,7 +7271,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
         <v>560</v>
       </c>
@@ -7278,7 +7279,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
         <v>561</v>
       </c>
@@ -7286,7 +7287,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
         <v>562</v>
       </c>
@@ -7294,7 +7295,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
         <v>563</v>
       </c>
@@ -7302,7 +7303,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
         <v>564</v>
       </c>
@@ -7310,7 +7311,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
         <v>565</v>
       </c>
@@ -7318,7 +7319,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
         <v>566</v>
       </c>
@@ -7326,7 +7327,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
         <v>567</v>
       </c>
@@ -7334,7 +7335,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
         <v>568</v>
       </c>
@@ -7342,7 +7343,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
         <v>569</v>
       </c>
@@ -7350,7 +7351,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
         <v>570</v>
       </c>
@@ -7358,7 +7359,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
         <v>571</v>
       </c>
@@ -7366,7 +7367,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
         <v>572</v>
       </c>
@@ -7374,7 +7375,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
         <v>573</v>
       </c>
@@ -7382,7 +7383,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
         <v>574</v>
       </c>
@@ -7390,7 +7391,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
         <v>575</v>
       </c>
@@ -7398,7 +7399,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
         <v>576</v>
       </c>
@@ -7406,7 +7407,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
         <v>577</v>
       </c>
@@ -7414,7 +7415,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
         <v>578</v>
       </c>
@@ -7422,7 +7423,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
         <v>579</v>
       </c>
@@ -7430,7 +7431,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
         <v>580</v>
       </c>
@@ -7438,7 +7439,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
         <v>581</v>
       </c>
@@ -7446,7 +7447,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" s="1" t="s">
         <v>582</v>
       </c>
@@ -7454,7 +7455,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
         <v>583</v>
       </c>
@@ -7462,7 +7463,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" s="1" t="s">
         <v>584</v>
       </c>
@@ -7470,7 +7471,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
         <v>585</v>
       </c>
@@ -7478,7 +7479,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601" s="1" t="s">
         <v>578</v>
       </c>
@@ -7486,7 +7487,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
         <v>586</v>
       </c>
@@ -7494,7 +7495,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603" s="1" t="s">
         <v>587</v>
       </c>
@@ -7502,7 +7503,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
         <v>587</v>
       </c>
@@ -7510,7 +7511,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605" s="1" t="s">
         <v>588</v>
       </c>
@@ -7518,7 +7519,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606" s="1" t="s">
         <v>589</v>
       </c>
@@ -7526,7 +7527,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A607" s="1" t="s">
         <v>590</v>
       </c>
@@ -7534,7 +7535,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
         <v>591</v>
       </c>
@@ -7542,7 +7543,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A609" s="1" t="s">
         <v>592</v>
       </c>
@@ -7550,7 +7551,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
         <v>593</v>
       </c>
@@ -7558,7 +7559,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611" s="1" t="s">
         <v>594</v>
       </c>
@@ -7566,7 +7567,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
         <v>595</v>
       </c>
@@ -7574,7 +7575,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613" s="1" t="s">
         <v>596</v>
       </c>
@@ -7582,7 +7583,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
         <v>597</v>
       </c>
@@ -7590,7 +7591,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A615" s="1" t="s">
         <v>550</v>
       </c>
@@ -7598,7 +7599,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
         <v>598</v>
       </c>
@@ -7606,7 +7607,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617" s="1" t="s">
         <v>599</v>
       </c>
@@ -7614,7 +7615,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618" s="1" t="s">
         <v>600</v>
       </c>
@@ -7622,7 +7623,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619" s="1" t="s">
         <v>601</v>
       </c>
@@ -7630,7 +7631,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
         <v>602</v>
       </c>
@@ -7638,7 +7639,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A621" s="1" t="s">
         <v>603</v>
       </c>
@@ -7646,7 +7647,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
         <v>604</v>
       </c>
@@ -7654,7 +7655,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623" s="1" t="s">
         <v>605</v>
       </c>
@@ -7662,7 +7663,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A624" s="1" t="s">
         <v>606</v>
       </c>
@@ -7670,7 +7671,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A625" s="1" t="s">
         <v>607</v>
       </c>
@@ -7678,7 +7679,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A626" s="1" t="s">
         <v>608</v>
       </c>
@@ -7686,7 +7687,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A627" s="1" t="s">
         <v>609</v>
       </c>
@@ -7694,7 +7695,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A628" s="1" t="s">
         <v>610</v>
       </c>
@@ -7702,7 +7703,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A629" s="1" t="s">
         <v>584</v>
       </c>
@@ -7710,7 +7711,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A630" s="1" t="s">
         <v>611</v>
       </c>
@@ -7718,7 +7719,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A631" s="1" t="s">
         <v>612</v>
       </c>
@@ -7726,7 +7727,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A632" s="1" t="s">
         <v>613</v>
       </c>
@@ -7734,7 +7735,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A633" s="1" t="s">
         <v>614</v>
       </c>
@@ -7742,7 +7743,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A634" s="1" t="s">
         <v>615</v>
       </c>
@@ -7750,7 +7751,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A635" s="1" t="s">
         <v>616</v>
       </c>
@@ -7758,7 +7759,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A636" s="1" t="s">
         <v>617</v>
       </c>
@@ -7766,7 +7767,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A637" s="1" t="s">
         <v>618</v>
       </c>
@@ -7774,7 +7775,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A638" s="1" t="s">
         <v>619</v>
       </c>
@@ -7782,7 +7783,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A639" s="1" t="s">
         <v>620</v>
       </c>
@@ -7790,7 +7791,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A640" s="1" t="s">
         <v>621</v>
       </c>
@@ -7798,7 +7799,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A641" s="1" t="s">
         <v>622</v>
       </c>
@@ -7806,7 +7807,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A642" s="1" t="s">
         <v>623</v>
       </c>
@@ -7814,7 +7815,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A643" s="1" t="s">
         <v>622</v>
       </c>
@@ -7822,7 +7823,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A644" s="1" t="s">
         <v>624</v>
       </c>
@@ -7830,7 +7831,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A645" s="1" t="s">
         <v>625</v>
       </c>
@@ -7838,7 +7839,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A646" s="1" t="s">
         <v>626</v>
       </c>
@@ -7846,7 +7847,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A647" s="1" t="s">
         <v>627</v>
       </c>
@@ -7854,7 +7855,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A648" s="1" t="s">
         <v>547</v>
       </c>
@@ -7862,7 +7863,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A649" s="1" t="s">
         <v>628</v>
       </c>
@@ -7870,7 +7871,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A650" s="1" t="s">
         <v>629</v>
       </c>
@@ -7878,7 +7879,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A651" s="1" t="s">
         <v>630</v>
       </c>
@@ -7886,7 +7887,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A652" s="1" t="s">
         <v>631</v>
       </c>
@@ -7894,7 +7895,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A653" s="1" t="s">
         <v>632</v>
       </c>
@@ -7902,7 +7903,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A654" s="1" t="s">
         <v>633</v>
       </c>
@@ -7910,7 +7911,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A655" s="1" t="s">
         <v>634</v>
       </c>
@@ -7918,7 +7919,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656" s="1" t="s">
         <v>635</v>
       </c>
@@ -7926,7 +7927,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A657" s="1" t="s">
         <v>636</v>
       </c>
@@ -7934,7 +7935,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658" s="1" t="s">
         <v>637</v>
       </c>
@@ -7942,7 +7943,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659" s="1" t="s">
         <v>638</v>
       </c>
@@ -7950,7 +7951,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A660" s="1" t="s">
         <v>639</v>
       </c>
@@ -7958,7 +7959,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A661" s="1" t="s">
         <v>640</v>
       </c>
@@ -7966,7 +7967,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A662" s="1" t="s">
         <v>641</v>
       </c>
@@ -7974,7 +7975,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A663" s="1" t="s">
         <v>642</v>
       </c>
@@ -7982,7 +7983,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A664" s="1" t="s">
         <v>643</v>
       </c>
@@ -7990,7 +7991,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A665" s="1" t="s">
         <v>644</v>
       </c>
@@ -7998,7 +7999,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A666" s="1" t="s">
         <v>645</v>
       </c>
@@ -8006,7 +8007,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A667" s="1" t="s">
         <v>646</v>
       </c>
@@ -8014,7 +8015,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A668" s="1" t="s">
         <v>647</v>
       </c>
@@ -8022,7 +8023,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A669" s="1" t="s">
         <v>648</v>
       </c>
@@ -8030,7 +8031,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A670" s="1" t="s">
         <v>649</v>
       </c>
@@ -8038,7 +8039,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A671" s="1" t="s">
         <v>650</v>
       </c>
@@ -8046,7 +8047,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A672" s="1" t="s">
         <v>651</v>
       </c>
@@ -8054,7 +8055,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A673" s="1" t="s">
         <v>652</v>
       </c>
@@ -8062,7 +8063,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A674" s="1" t="s">
         <v>653</v>
       </c>
@@ -8070,7 +8071,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A675" s="1" t="s">
         <v>654</v>
       </c>
@@ -8078,7 +8079,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A676" s="1" t="s">
         <v>655</v>
       </c>
@@ -8086,7 +8087,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A677" s="1" t="s">
         <v>656</v>
       </c>
@@ -8094,7 +8095,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A678" s="1" t="s">
         <v>657</v>
       </c>
@@ -8102,7 +8103,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A679" s="1" t="s">
         <v>658</v>
       </c>
@@ -8110,7 +8111,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A680" s="1" t="s">
         <v>659</v>
       </c>
@@ -8118,7 +8119,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A681" s="1" t="s">
         <v>660</v>
       </c>
@@ -8126,7 +8127,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A682" s="1" t="s">
         <v>661</v>
       </c>
@@ -8134,7 +8135,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A683" s="1" t="s">
         <v>662</v>
       </c>
@@ -8142,7 +8143,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A684" s="1" t="s">
         <v>663</v>
       </c>
@@ -8150,7 +8151,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A685" s="1" t="s">
         <v>664</v>
       </c>
@@ -8158,7 +8159,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A686" s="1" t="s">
         <v>665</v>
       </c>
@@ -8166,7 +8167,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A687" s="1" t="s">
         <v>666</v>
       </c>
@@ -8174,7 +8175,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A688" s="1" t="s">
         <v>667</v>
       </c>
@@ -8182,7 +8183,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A689" s="1" t="s">
         <v>668</v>
       </c>
@@ -8190,7 +8191,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A690" s="1" t="s">
         <v>669</v>
       </c>
@@ -8198,7 +8199,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A691" s="1" t="s">
         <v>670</v>
       </c>
@@ -8206,7 +8207,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A692" s="1" t="s">
         <v>671</v>
       </c>
@@ -8214,7 +8215,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A693" s="1" t="s">
         <v>672</v>
       </c>
@@ -8222,7 +8223,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A694" s="1" t="s">
         <v>673</v>
       </c>
@@ -8230,7 +8231,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A695" s="2" t="s">
         <v>674</v>
       </c>
@@ -8238,7 +8239,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A696" s="2" t="s">
         <v>675</v>
       </c>
@@ -8246,7 +8247,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A697" s="1" t="s">
         <v>676</v>
       </c>
@@ -8254,7 +8255,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A698" s="1" t="s">
         <v>677</v>
       </c>
@@ -8262,7 +8263,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A699" s="1" t="s">
         <v>678</v>
       </c>
@@ -8270,7 +8271,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A700" s="1" t="s">
         <v>679</v>
       </c>
@@ -8278,7 +8279,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A701" s="1" t="s">
         <v>680</v>
       </c>
@@ -8286,7 +8287,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A702" s="1" t="s">
         <v>681</v>
       </c>
@@ -8294,7 +8295,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A703" s="1" t="s">
         <v>682</v>
       </c>
@@ -8302,7 +8303,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A704" s="1" t="s">
         <v>683</v>
       </c>
@@ -8310,7 +8311,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A705" s="1" t="s">
         <v>684</v>
       </c>
@@ -8318,7 +8319,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A706" s="1" t="s">
         <v>685</v>
       </c>
@@ -8326,7 +8327,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A707" s="1" t="s">
         <v>686</v>
       </c>
@@ -8334,7 +8335,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A708" s="1" t="s">
         <v>687</v>
       </c>
@@ -8342,7 +8343,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A709" s="1" t="s">
         <v>551</v>
       </c>
@@ -8350,7 +8351,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A710" s="1" t="s">
         <v>688</v>
       </c>
@@ -8358,7 +8359,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A711" s="1" t="s">
         <v>689</v>
       </c>
@@ -8366,7 +8367,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A712" s="1" t="s">
         <v>690</v>
       </c>
@@ -8374,7 +8375,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A713" s="1" t="s">
         <v>691</v>
       </c>
@@ -8382,7 +8383,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A714" s="1" t="s">
         <v>692</v>
       </c>
@@ -8390,7 +8391,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A715" s="1" t="s">
         <v>693</v>
       </c>
@@ -8398,7 +8399,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A716" s="1" t="s">
         <v>694</v>
       </c>
@@ -8406,7 +8407,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A717" s="1" t="s">
         <v>695</v>
       </c>
@@ -8414,7 +8415,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A718" s="1" t="s">
         <v>696</v>
       </c>
@@ -8422,7 +8423,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A719" s="1" t="s">
         <v>697</v>
       </c>
@@ -8430,7 +8431,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A720" s="1" t="s">
         <v>698</v>
       </c>
@@ -8438,7 +8439,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A721" s="1" t="s">
         <v>699</v>
       </c>
@@ -8446,7 +8447,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A722" s="1" t="s">
         <v>700</v>
       </c>
@@ -8454,7 +8455,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A723" s="1" t="s">
         <v>701</v>
       </c>
@@ -8462,7 +8463,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A724" s="1" t="s">
         <v>694</v>
       </c>
@@ -8470,7 +8471,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A725" s="1" t="s">
         <v>702</v>
       </c>
@@ -8478,7 +8479,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A726" s="1" t="s">
         <v>703</v>
       </c>
@@ -8486,7 +8487,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A727" s="1" t="s">
         <v>704</v>
       </c>
@@ -8494,7 +8495,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A728" s="1" t="s">
         <v>705</v>
       </c>
@@ -8502,7 +8503,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A729" s="1" t="s">
         <v>706</v>
       </c>
@@ -8510,7 +8511,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A730" s="1" t="s">
         <v>707</v>
       </c>
@@ -8518,7 +8519,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A731" s="1" t="s">
         <v>708</v>
       </c>
@@ -8526,7 +8527,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A732" s="1" t="s">
         <v>709</v>
       </c>
@@ -8534,7 +8535,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A733" s="1" t="s">
         <v>710</v>
       </c>
@@ -8542,7 +8543,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A734" s="1" t="s">
         <v>654</v>
       </c>
@@ -8550,7 +8551,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A735" s="1" t="s">
         <v>711</v>
       </c>
@@ -8558,7 +8559,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A736" s="1" t="s">
         <v>712</v>
       </c>
@@ -8566,7 +8567,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A737" s="1" t="s">
         <v>713</v>
       </c>
@@ -8574,7 +8575,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A738" s="1" t="s">
         <v>714</v>
       </c>
@@ -8582,7 +8583,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A739" s="1" t="s">
         <v>715</v>
       </c>
@@ -8590,7 +8591,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A740" s="1" t="s">
         <v>716</v>
       </c>
@@ -8598,7 +8599,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A741" s="1" t="s">
         <v>717</v>
       </c>
@@ -8606,7 +8607,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A742" s="1" t="s">
         <v>718</v>
       </c>
@@ -8614,7 +8615,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A743" s="1" t="s">
         <v>719</v>
       </c>
@@ -8622,7 +8623,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A744" s="1" t="s">
         <v>720</v>
       </c>
@@ -8630,7 +8631,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A745" s="1" t="s">
         <v>721</v>
       </c>
@@ -8638,7 +8639,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A746" s="1" t="s">
         <v>555</v>
       </c>
@@ -8646,7 +8647,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A747" s="1" t="s">
         <v>722</v>
       </c>
@@ -8654,7 +8655,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A748" s="1" t="s">
         <v>723</v>
       </c>
@@ -8662,7 +8663,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A749" s="1" t="s">
         <v>724</v>
       </c>
@@ -8670,7 +8671,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A750" s="1" t="s">
         <v>554</v>
       </c>
@@ -8678,7 +8679,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A751" s="1" t="s">
         <v>725</v>
       </c>
@@ -8686,7 +8687,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A752" s="1" t="s">
         <v>726</v>
       </c>
@@ -8694,7 +8695,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A753" s="1" t="s">
         <v>727</v>
       </c>
@@ -8702,7 +8703,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A754" s="1" t="s">
         <v>728</v>
       </c>
@@ -8710,7 +8711,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A755" s="1" t="s">
         <v>729</v>
       </c>
@@ -8718,7 +8719,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A756" s="1" t="s">
         <v>730</v>
       </c>
@@ -8726,7 +8727,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A757" s="1" t="s">
         <v>731</v>
       </c>
@@ -8734,7 +8735,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A758" s="1" t="s">
         <v>732</v>
       </c>
@@ -8742,7 +8743,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A759" s="1" t="s">
         <v>733</v>
       </c>
@@ -8750,7 +8751,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A760" s="1" t="s">
         <v>734</v>
       </c>
@@ -8758,7 +8759,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A761" s="1" t="s">
         <v>735</v>
       </c>
@@ -8766,7 +8767,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A762" s="1" t="s">
         <v>736</v>
       </c>
@@ -8774,7 +8775,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A763" s="1" t="s">
         <v>737</v>
       </c>
@@ -8782,7 +8783,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A764" s="1" t="s">
         <v>738</v>
       </c>
@@ -8790,7 +8791,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A765" s="1" t="s">
         <v>739</v>
       </c>
@@ -8798,7 +8799,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A766" s="1" t="s">
         <v>740</v>
       </c>
@@ -8806,7 +8807,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A767" s="1" t="s">
         <v>741</v>
       </c>
@@ -8814,7 +8815,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A768" s="1" t="s">
         <v>742</v>
       </c>
@@ -8822,7 +8823,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A769" s="1" t="s">
         <v>743</v>
       </c>
@@ -8830,7 +8831,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A770" s="1" t="s">
         <v>744</v>
       </c>
@@ -8838,7 +8839,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A771" s="1" t="s">
         <v>745</v>
       </c>
@@ -8846,7 +8847,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A772" s="1" t="s">
         <v>746</v>
       </c>
@@ -8854,7 +8855,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A773" s="1" t="s">
         <v>747</v>
       </c>
@@ -8862,7 +8863,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A774" s="1" t="s">
         <v>748</v>
       </c>
@@ -8870,7 +8871,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A775" s="1" t="s">
         <v>746</v>
       </c>
@@ -8878,7 +8879,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A776" s="1" t="s">
         <v>749</v>
       </c>
@@ -8886,7 +8887,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A777" s="1" t="s">
         <v>750</v>
       </c>
@@ -8894,7 +8895,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A778" s="1" t="s">
         <v>579</v>
       </c>
@@ -8902,7 +8903,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A779" s="1" t="s">
         <v>751</v>
       </c>
@@ -8910,7 +8911,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A780" s="1" t="s">
         <v>752</v>
       </c>
@@ -8918,7 +8919,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A781" s="1" t="s">
         <v>711</v>
       </c>
@@ -8926,7 +8927,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A782" s="1" t="s">
         <v>753</v>
       </c>
@@ -8934,7 +8935,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A783" s="1" t="s">
         <v>754</v>
       </c>
@@ -8942,7 +8943,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A784" s="1" t="s">
         <v>755</v>
       </c>
@@ -8950,7 +8951,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A785" s="1" t="s">
         <v>685</v>
       </c>
@@ -8958,7 +8959,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A786" s="1" t="s">
         <v>756</v>
       </c>
@@ -8966,7 +8967,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A787" s="1" t="s">
         <v>757</v>
       </c>
@@ -8974,7 +8975,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A788" s="1" t="s">
         <v>758</v>
       </c>
@@ -8982,7 +8983,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A789" s="1" t="s">
         <v>759</v>
       </c>
@@ -8990,791 +8991,791 @@
         <v>761</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>760</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-    <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
-    <hyperlink ref="A13" r:id="rId13"/>
-    <hyperlink ref="A14" r:id="rId14"/>
-    <hyperlink ref="A15" r:id="rId15"/>
-    <hyperlink ref="A16" r:id="rId16"/>
-    <hyperlink ref="A17" r:id="rId17"/>
-    <hyperlink ref="A18" r:id="rId18"/>
-    <hyperlink ref="A19" r:id="rId19"/>
-    <hyperlink ref="A20" r:id="rId20"/>
-    <hyperlink ref="A21" r:id="rId21"/>
-    <hyperlink ref="A22" r:id="rId22"/>
-    <hyperlink ref="A23" r:id="rId23"/>
-    <hyperlink ref="A24" r:id="rId24"/>
-    <hyperlink ref="A25" r:id="rId25"/>
-    <hyperlink ref="A26" r:id="rId26"/>
-    <hyperlink ref="A27" r:id="rId27"/>
-    <hyperlink ref="A28" r:id="rId28"/>
-    <hyperlink ref="A29" r:id="rId29"/>
-    <hyperlink ref="A30" r:id="rId30"/>
-    <hyperlink ref="A31" r:id="rId31"/>
-    <hyperlink ref="A32" r:id="rId32"/>
-    <hyperlink ref="A33" r:id="rId33"/>
-    <hyperlink ref="A34" r:id="rId34"/>
-    <hyperlink ref="A35" r:id="rId35"/>
-    <hyperlink ref="A36" r:id="rId36"/>
-    <hyperlink ref="A37" r:id="rId37"/>
-    <hyperlink ref="A38" r:id="rId38"/>
-    <hyperlink ref="A39" r:id="rId39"/>
-    <hyperlink ref="A40" r:id="rId40"/>
-    <hyperlink ref="A41" r:id="rId41"/>
-    <hyperlink ref="A42" r:id="rId42"/>
-    <hyperlink ref="A43" r:id="rId43"/>
-    <hyperlink ref="A44" r:id="rId44"/>
-    <hyperlink ref="A45" r:id="rId45"/>
-    <hyperlink ref="A46" r:id="rId46"/>
-    <hyperlink ref="A47" r:id="rId47"/>
-    <hyperlink ref="A48" r:id="rId48"/>
-    <hyperlink ref="A49" r:id="rId49"/>
-    <hyperlink ref="A50" r:id="rId50"/>
-    <hyperlink ref="A51" r:id="rId51"/>
-    <hyperlink ref="A52" r:id="rId52"/>
-    <hyperlink ref="A53" r:id="rId53"/>
-    <hyperlink ref="A54" r:id="rId54"/>
-    <hyperlink ref="A55" r:id="rId55"/>
-    <hyperlink ref="A56" r:id="rId56"/>
-    <hyperlink ref="A57" r:id="rId57"/>
-    <hyperlink ref="A58" r:id="rId58"/>
-    <hyperlink ref="A59" r:id="rId59"/>
-    <hyperlink ref="A60" r:id="rId60"/>
-    <hyperlink ref="A61" r:id="rId61"/>
-    <hyperlink ref="A62" r:id="rId62"/>
-    <hyperlink ref="A63" r:id="rId63"/>
-    <hyperlink ref="A64" r:id="rId64"/>
-    <hyperlink ref="A65" r:id="rId65"/>
-    <hyperlink ref="A66" r:id="rId66"/>
-    <hyperlink ref="A67" r:id="rId67"/>
-    <hyperlink ref="A68" r:id="rId68"/>
-    <hyperlink ref="A69" r:id="rId69"/>
-    <hyperlink ref="A70" r:id="rId70"/>
-    <hyperlink ref="A72" r:id="rId71"/>
-    <hyperlink ref="A73" r:id="rId72"/>
-    <hyperlink ref="A74" r:id="rId73"/>
-    <hyperlink ref="A75" r:id="rId74"/>
-    <hyperlink ref="A76" r:id="rId75"/>
-    <hyperlink ref="A77" r:id="rId76"/>
-    <hyperlink ref="A78" r:id="rId77"/>
-    <hyperlink ref="A79" r:id="rId78"/>
-    <hyperlink ref="A80" r:id="rId79"/>
-    <hyperlink ref="A81" r:id="rId80"/>
-    <hyperlink ref="A82" r:id="rId81"/>
-    <hyperlink ref="A83" r:id="rId82"/>
-    <hyperlink ref="A84" r:id="rId83"/>
-    <hyperlink ref="A85" r:id="rId84"/>
-    <hyperlink ref="A86" r:id="rId85"/>
-    <hyperlink ref="A87" r:id="rId86"/>
-    <hyperlink ref="A88" r:id="rId87"/>
-    <hyperlink ref="A89" r:id="rId88"/>
-    <hyperlink ref="A90" r:id="rId89"/>
-    <hyperlink ref="A91" r:id="rId90"/>
-    <hyperlink ref="A92" r:id="rId91"/>
-    <hyperlink ref="A93" r:id="rId92"/>
-    <hyperlink ref="A94" r:id="rId93"/>
-    <hyperlink ref="A95" r:id="rId94"/>
-    <hyperlink ref="A96" r:id="rId95"/>
-    <hyperlink ref="A97" r:id="rId96"/>
-    <hyperlink ref="A98" r:id="rId97"/>
-    <hyperlink ref="A99" r:id="rId98"/>
-    <hyperlink ref="A100" r:id="rId99"/>
-    <hyperlink ref="A101" r:id="rId100"/>
-    <hyperlink ref="A102" r:id="rId101"/>
-    <hyperlink ref="A103" r:id="rId102"/>
-    <hyperlink ref="A104" r:id="rId103"/>
-    <hyperlink ref="A105" r:id="rId104"/>
-    <hyperlink ref="A106" r:id="rId105"/>
-    <hyperlink ref="A107" r:id="rId106"/>
-    <hyperlink ref="A108" r:id="rId107"/>
-    <hyperlink ref="A109" r:id="rId108"/>
-    <hyperlink ref="A110" r:id="rId109"/>
-    <hyperlink ref="A111" r:id="rId110"/>
-    <hyperlink ref="A112" r:id="rId111"/>
-    <hyperlink ref="A113" r:id="rId112"/>
-    <hyperlink ref="A114" r:id="rId113"/>
-    <hyperlink ref="A115" r:id="rId114"/>
-    <hyperlink ref="A116" r:id="rId115"/>
-    <hyperlink ref="A117" r:id="rId116"/>
-    <hyperlink ref="A118" r:id="rId117"/>
-    <hyperlink ref="A119" r:id="rId118"/>
-    <hyperlink ref="A120" r:id="rId119"/>
-    <hyperlink ref="A121" r:id="rId120"/>
-    <hyperlink ref="A122" r:id="rId121"/>
-    <hyperlink ref="A123" r:id="rId122"/>
-    <hyperlink ref="A124" r:id="rId123"/>
-    <hyperlink ref="A125" r:id="rId124"/>
-    <hyperlink ref="A126" r:id="rId125"/>
-    <hyperlink ref="A127" r:id="rId126"/>
-    <hyperlink ref="A128" r:id="rId127"/>
-    <hyperlink ref="A129" r:id="rId128"/>
-    <hyperlink ref="A130" r:id="rId129"/>
-    <hyperlink ref="A131" r:id="rId130"/>
-    <hyperlink ref="A132" r:id="rId131"/>
-    <hyperlink ref="A133" r:id="rId132"/>
-    <hyperlink ref="A134" r:id="rId133"/>
-    <hyperlink ref="A135" r:id="rId134"/>
-    <hyperlink ref="A136" r:id="rId135"/>
-    <hyperlink ref="A137" r:id="rId136"/>
-    <hyperlink ref="A138" r:id="rId137"/>
-    <hyperlink ref="A139" r:id="rId138"/>
-    <hyperlink ref="A140" r:id="rId139"/>
-    <hyperlink ref="A141" r:id="rId140"/>
-    <hyperlink ref="A142" r:id="rId141"/>
-    <hyperlink ref="A143" r:id="rId142"/>
-    <hyperlink ref="A144" r:id="rId143"/>
-    <hyperlink ref="A145" r:id="rId144"/>
-    <hyperlink ref="A146" r:id="rId145"/>
-    <hyperlink ref="A147" r:id="rId146"/>
-    <hyperlink ref="A149" r:id="rId147"/>
-    <hyperlink ref="A148" r:id="rId148"/>
-    <hyperlink ref="A150" r:id="rId149"/>
-    <hyperlink ref="A151" r:id="rId150"/>
-    <hyperlink ref="A152" r:id="rId151"/>
-    <hyperlink ref="A153" r:id="rId152"/>
-    <hyperlink ref="A154" r:id="rId153"/>
-    <hyperlink ref="A155" r:id="rId154"/>
-    <hyperlink ref="A156" r:id="rId155"/>
-    <hyperlink ref="A157" r:id="rId156"/>
-    <hyperlink ref="A158" r:id="rId157"/>
-    <hyperlink ref="A159" r:id="rId158"/>
-    <hyperlink ref="A160" r:id="rId159"/>
-    <hyperlink ref="A161" r:id="rId160"/>
-    <hyperlink ref="A162" r:id="rId161"/>
-    <hyperlink ref="A163" r:id="rId162"/>
-    <hyperlink ref="A164" r:id="rId163"/>
-    <hyperlink ref="A165" r:id="rId164"/>
-    <hyperlink ref="A166" r:id="rId165"/>
-    <hyperlink ref="A167" r:id="rId166"/>
-    <hyperlink ref="A168" r:id="rId167"/>
-    <hyperlink ref="A169" r:id="rId168"/>
-    <hyperlink ref="A170" r:id="rId169"/>
-    <hyperlink ref="A171" r:id="rId170"/>
-    <hyperlink ref="A172" r:id="rId171"/>
-    <hyperlink ref="A173" r:id="rId172"/>
-    <hyperlink ref="A174" r:id="rId173"/>
-    <hyperlink ref="A175" r:id="rId174"/>
-    <hyperlink ref="A176" r:id="rId175"/>
-    <hyperlink ref="A177" r:id="rId176"/>
-    <hyperlink ref="A178" r:id="rId177"/>
-    <hyperlink ref="A179" r:id="rId178"/>
-    <hyperlink ref="A180" r:id="rId179"/>
-    <hyperlink ref="A181" r:id="rId180"/>
-    <hyperlink ref="A182" r:id="rId181"/>
-    <hyperlink ref="A183" r:id="rId182"/>
-    <hyperlink ref="A184" r:id="rId183"/>
-    <hyperlink ref="A185" r:id="rId184"/>
-    <hyperlink ref="A186" r:id="rId185"/>
-    <hyperlink ref="A187" r:id="rId186"/>
-    <hyperlink ref="A188" r:id="rId187"/>
-    <hyperlink ref="A189" r:id="rId188"/>
-    <hyperlink ref="A190" r:id="rId189"/>
-    <hyperlink ref="A191" r:id="rId190"/>
-    <hyperlink ref="A192" r:id="rId191"/>
-    <hyperlink ref="A193" r:id="rId192"/>
-    <hyperlink ref="A194" r:id="rId193"/>
-    <hyperlink ref="A195" r:id="rId194"/>
-    <hyperlink ref="A196" r:id="rId195"/>
-    <hyperlink ref="A197" r:id="rId196"/>
-    <hyperlink ref="A198" r:id="rId197"/>
-    <hyperlink ref="A199" r:id="rId198"/>
-    <hyperlink ref="A200" r:id="rId199"/>
-    <hyperlink ref="A201" r:id="rId200"/>
-    <hyperlink ref="A202" r:id="rId201"/>
-    <hyperlink ref="A203" r:id="rId202"/>
-    <hyperlink ref="A204" r:id="rId203"/>
-    <hyperlink ref="A205" r:id="rId204"/>
-    <hyperlink ref="A206" r:id="rId205"/>
-    <hyperlink ref="A207" r:id="rId206"/>
-    <hyperlink ref="A208" r:id="rId207"/>
-    <hyperlink ref="A209" r:id="rId208"/>
-    <hyperlink ref="A210" r:id="rId209"/>
-    <hyperlink ref="A211" r:id="rId210"/>
-    <hyperlink ref="A212" r:id="rId211"/>
-    <hyperlink ref="A213" r:id="rId212"/>
-    <hyperlink ref="A214" r:id="rId213"/>
-    <hyperlink ref="A215" r:id="rId214"/>
-    <hyperlink ref="A216" r:id="rId215"/>
-    <hyperlink ref="A217" r:id="rId216"/>
-    <hyperlink ref="A218" r:id="rId217"/>
-    <hyperlink ref="A219" r:id="rId218"/>
-    <hyperlink ref="A220" r:id="rId219"/>
-    <hyperlink ref="A221" r:id="rId220"/>
-    <hyperlink ref="A222" r:id="rId221"/>
-    <hyperlink ref="A223" r:id="rId222"/>
-    <hyperlink ref="A224" r:id="rId223"/>
-    <hyperlink ref="A225" r:id="rId224"/>
-    <hyperlink ref="A226" r:id="rId225"/>
-    <hyperlink ref="A227" r:id="rId226"/>
-    <hyperlink ref="A228" r:id="rId227"/>
-    <hyperlink ref="A229" r:id="rId228"/>
-    <hyperlink ref="A230" r:id="rId229"/>
-    <hyperlink ref="A231" r:id="rId230"/>
-    <hyperlink ref="A232" r:id="rId231"/>
-    <hyperlink ref="A233" r:id="rId232"/>
-    <hyperlink ref="A234" r:id="rId233"/>
-    <hyperlink ref="A235" r:id="rId234"/>
-    <hyperlink ref="A236" r:id="rId235"/>
-    <hyperlink ref="A237" r:id="rId236"/>
-    <hyperlink ref="A241" r:id="rId237"/>
-    <hyperlink ref="A242" r:id="rId238"/>
-    <hyperlink ref="A243" r:id="rId239"/>
-    <hyperlink ref="A244" r:id="rId240"/>
-    <hyperlink ref="A245" r:id="rId241"/>
-    <hyperlink ref="A246" r:id="rId242"/>
-    <hyperlink ref="A247" r:id="rId243"/>
-    <hyperlink ref="A248" r:id="rId244"/>
-    <hyperlink ref="A249" r:id="rId245"/>
-    <hyperlink ref="A250" r:id="rId246"/>
-    <hyperlink ref="A251" r:id="rId247"/>
-    <hyperlink ref="A252" r:id="rId248"/>
-    <hyperlink ref="A253" r:id="rId249"/>
-    <hyperlink ref="A254" r:id="rId250"/>
-    <hyperlink ref="A255" r:id="rId251"/>
-    <hyperlink ref="A256" r:id="rId252"/>
-    <hyperlink ref="A257" r:id="rId253"/>
-    <hyperlink ref="A258" r:id="rId254"/>
-    <hyperlink ref="A259" r:id="rId255"/>
-    <hyperlink ref="A260" r:id="rId256"/>
-    <hyperlink ref="A261" r:id="rId257"/>
-    <hyperlink ref="A262" r:id="rId258"/>
-    <hyperlink ref="A263" r:id="rId259"/>
-    <hyperlink ref="A264" r:id="rId260"/>
-    <hyperlink ref="A265" display="https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgMlILxBQ6Xl2H8pyj5G9LO8l4EjSbmFRhv65tbDZzyfc58LLImA2LUwEee9eQ2SDYoUX9yIeaILEPUt_PQyyG5bMKBaFlGyNRhINFXrg2KH61x3dxSYL75BjyNH-0Dh__1iFALei9vtGTF_98X7BbCJXCpcyi7PEA2-gpqQpdy2s546EZ8NnoLHXQpblA/s920/1"/>
-    <hyperlink ref="A266" r:id="rId261"/>
-    <hyperlink ref="A267" r:id="rId262"/>
-    <hyperlink ref="A268" r:id="rId263"/>
-    <hyperlink ref="A269" r:id="rId264"/>
-    <hyperlink ref="A270" r:id="rId265"/>
-    <hyperlink ref="A271" r:id="rId266"/>
-    <hyperlink ref="A272" r:id="rId267"/>
-    <hyperlink ref="A273" r:id="rId268"/>
-    <hyperlink ref="A274" r:id="rId269"/>
-    <hyperlink ref="A275" r:id="rId270"/>
-    <hyperlink ref="A276" r:id="rId271"/>
-    <hyperlink ref="A277" r:id="rId272"/>
-    <hyperlink ref="A278" r:id="rId273"/>
-    <hyperlink ref="A279" r:id="rId274"/>
-    <hyperlink ref="A280" r:id="rId275"/>
-    <hyperlink ref="A281" r:id="rId276"/>
-    <hyperlink ref="A282" r:id="rId277"/>
-    <hyperlink ref="A283" r:id="rId278"/>
-    <hyperlink ref="A284" r:id="rId279"/>
-    <hyperlink ref="A285" r:id="rId280"/>
-    <hyperlink ref="A286" r:id="rId281"/>
-    <hyperlink ref="A287" r:id="rId282"/>
-    <hyperlink ref="A288" r:id="rId283"/>
-    <hyperlink ref="A289" r:id="rId284"/>
-    <hyperlink ref="A290" r:id="rId285"/>
-    <hyperlink ref="A291" r:id="rId286"/>
-    <hyperlink ref="A292" r:id="rId287"/>
-    <hyperlink ref="A293" r:id="rId288"/>
-    <hyperlink ref="A294" r:id="rId289"/>
-    <hyperlink ref="A295" r:id="rId290"/>
-    <hyperlink ref="A296" r:id="rId291"/>
-    <hyperlink ref="A297" r:id="rId292"/>
-    <hyperlink ref="A298" r:id="rId293"/>
-    <hyperlink ref="A299" r:id="rId294"/>
-    <hyperlink ref="A300" r:id="rId295"/>
-    <hyperlink ref="A301" r:id="rId296"/>
-    <hyperlink ref="A302" r:id="rId297"/>
-    <hyperlink ref="A303" r:id="rId298"/>
-    <hyperlink ref="A304" r:id="rId299"/>
-    <hyperlink ref="A305" r:id="rId300"/>
-    <hyperlink ref="A306" r:id="rId301"/>
-    <hyperlink ref="A307" r:id="rId302"/>
-    <hyperlink ref="A308" r:id="rId303"/>
-    <hyperlink ref="A309" r:id="rId304"/>
-    <hyperlink ref="A310" r:id="rId305"/>
-    <hyperlink ref="A311" r:id="rId306"/>
-    <hyperlink ref="A312" r:id="rId307"/>
-    <hyperlink ref="A313" r:id="rId308"/>
-    <hyperlink ref="A314" r:id="rId309"/>
-    <hyperlink ref="A315" r:id="rId310"/>
-    <hyperlink ref="A316" r:id="rId311"/>
-    <hyperlink ref="A317" r:id="rId312"/>
-    <hyperlink ref="A318" r:id="rId313"/>
-    <hyperlink ref="A319" r:id="rId314"/>
-    <hyperlink ref="A320" r:id="rId315"/>
-    <hyperlink ref="A321" r:id="rId316"/>
-    <hyperlink ref="A322" r:id="rId317"/>
-    <hyperlink ref="A323" r:id="rId318"/>
-    <hyperlink ref="A324" r:id="rId319"/>
-    <hyperlink ref="A325" r:id="rId320"/>
-    <hyperlink ref="A326" r:id="rId321"/>
-    <hyperlink ref="A327" r:id="rId322"/>
-    <hyperlink ref="A328" r:id="rId323"/>
-    <hyperlink ref="A329" r:id="rId324"/>
-    <hyperlink ref="A330" r:id="rId325"/>
-    <hyperlink ref="A331" r:id="rId326"/>
-    <hyperlink ref="A332" r:id="rId327"/>
-    <hyperlink ref="A333" r:id="rId328"/>
-    <hyperlink ref="A334" r:id="rId329"/>
-    <hyperlink ref="A335" r:id="rId330"/>
-    <hyperlink ref="A336" r:id="rId331"/>
-    <hyperlink ref="A337" r:id="rId332"/>
-    <hyperlink ref="A338" r:id="rId333"/>
-    <hyperlink ref="A339" r:id="rId334"/>
-    <hyperlink ref="A340" r:id="rId335"/>
-    <hyperlink ref="A341" r:id="rId336"/>
-    <hyperlink ref="A342" r:id="rId337"/>
-    <hyperlink ref="A343" r:id="rId338"/>
-    <hyperlink ref="A344" r:id="rId339"/>
-    <hyperlink ref="A345" r:id="rId340"/>
-    <hyperlink ref="A346" r:id="rId341"/>
-    <hyperlink ref="A347" r:id="rId342"/>
-    <hyperlink ref="A348" r:id="rId343"/>
-    <hyperlink ref="A349" r:id="rId344"/>
-    <hyperlink ref="A350" r:id="rId345"/>
-    <hyperlink ref="A351" r:id="rId346"/>
-    <hyperlink ref="A352" r:id="rId347"/>
-    <hyperlink ref="A353" r:id="rId348"/>
-    <hyperlink ref="A354" r:id="rId349"/>
-    <hyperlink ref="A355" r:id="rId350"/>
-    <hyperlink ref="A356" r:id="rId351"/>
-    <hyperlink ref="A357" r:id="rId352"/>
-    <hyperlink ref="A358" r:id="rId353"/>
-    <hyperlink ref="A359" r:id="rId354"/>
-    <hyperlink ref="A360" r:id="rId355"/>
-    <hyperlink ref="A361" r:id="rId356"/>
-    <hyperlink ref="A362" r:id="rId357"/>
-    <hyperlink ref="A363" r:id="rId358"/>
-    <hyperlink ref="A364" r:id="rId359"/>
-    <hyperlink ref="A365" r:id="rId360"/>
-    <hyperlink ref="A366" r:id="rId361"/>
-    <hyperlink ref="A367" r:id="rId362"/>
-    <hyperlink ref="A368" r:id="rId363"/>
-    <hyperlink ref="A369" r:id="rId364"/>
-    <hyperlink ref="A370" r:id="rId365"/>
-    <hyperlink ref="A371" r:id="rId366"/>
-    <hyperlink ref="A372" r:id="rId367"/>
-    <hyperlink ref="A373" r:id="rId368"/>
-    <hyperlink ref="A374" r:id="rId369"/>
-    <hyperlink ref="A375" r:id="rId370"/>
-    <hyperlink ref="A376" r:id="rId371"/>
-    <hyperlink ref="A377" r:id="rId372"/>
-    <hyperlink ref="A378" r:id="rId373"/>
-    <hyperlink ref="A379" r:id="rId374"/>
-    <hyperlink ref="A380" r:id="rId375"/>
-    <hyperlink ref="A381" r:id="rId376"/>
-    <hyperlink ref="A382" r:id="rId377"/>
-    <hyperlink ref="A383" r:id="rId378"/>
-    <hyperlink ref="A384" r:id="rId379"/>
-    <hyperlink ref="A385" r:id="rId380"/>
-    <hyperlink ref="A386" r:id="rId381"/>
-    <hyperlink ref="A387" r:id="rId382"/>
-    <hyperlink ref="A388" r:id="rId383"/>
-    <hyperlink ref="A389" r:id="rId384"/>
-    <hyperlink ref="A390" r:id="rId385"/>
-    <hyperlink ref="A391" r:id="rId386"/>
-    <hyperlink ref="A392" r:id="rId387"/>
-    <hyperlink ref="A393" r:id="rId388"/>
-    <hyperlink ref="A394" r:id="rId389"/>
-    <hyperlink ref="A395" r:id="rId390"/>
-    <hyperlink ref="A396" r:id="rId391"/>
-    <hyperlink ref="A397" r:id="rId392"/>
-    <hyperlink ref="A398" r:id="rId393"/>
-    <hyperlink ref="A399" r:id="rId394"/>
-    <hyperlink ref="A400" r:id="rId395"/>
-    <hyperlink ref="A401" r:id="rId396"/>
-    <hyperlink ref="A402" r:id="rId397"/>
-    <hyperlink ref="A403" r:id="rId398"/>
-    <hyperlink ref="A404" r:id="rId399"/>
-    <hyperlink ref="A405" r:id="rId400"/>
-    <hyperlink ref="A406" r:id="rId401"/>
-    <hyperlink ref="A407" r:id="rId402"/>
-    <hyperlink ref="A408" r:id="rId403"/>
-    <hyperlink ref="A409" r:id="rId404"/>
-    <hyperlink ref="A410" r:id="rId405"/>
-    <hyperlink ref="A411" r:id="rId406"/>
-    <hyperlink ref="A412" r:id="rId407"/>
-    <hyperlink ref="A413" r:id="rId408"/>
-    <hyperlink ref="A415" r:id="rId409"/>
-    <hyperlink ref="A414" r:id="rId410"/>
-    <hyperlink ref="A416" r:id="rId411"/>
-    <hyperlink ref="A417" r:id="rId412"/>
-    <hyperlink ref="A418" r:id="rId413"/>
-    <hyperlink ref="A419" r:id="rId414"/>
-    <hyperlink ref="A420" r:id="rId415"/>
-    <hyperlink ref="A421" r:id="rId416"/>
-    <hyperlink ref="A422" r:id="rId417"/>
-    <hyperlink ref="A423" r:id="rId418"/>
-    <hyperlink ref="A424" r:id="rId419"/>
-    <hyperlink ref="A425" r:id="rId420"/>
-    <hyperlink ref="A426" r:id="rId421"/>
-    <hyperlink ref="A427" r:id="rId422"/>
-    <hyperlink ref="A428" r:id="rId423"/>
-    <hyperlink ref="A429" r:id="rId424"/>
-    <hyperlink ref="A430" r:id="rId425"/>
-    <hyperlink ref="A431" r:id="rId426"/>
-    <hyperlink ref="A432" r:id="rId427"/>
-    <hyperlink ref="A433" r:id="rId428"/>
-    <hyperlink ref="A434" r:id="rId429"/>
-    <hyperlink ref="A435" r:id="rId430"/>
-    <hyperlink ref="A436" r:id="rId431"/>
-    <hyperlink ref="A437" r:id="rId432"/>
-    <hyperlink ref="A438" r:id="rId433"/>
-    <hyperlink ref="A439" r:id="rId434"/>
-    <hyperlink ref="A440" r:id="rId435"/>
-    <hyperlink ref="A441" r:id="rId436"/>
-    <hyperlink ref="A442" r:id="rId437"/>
-    <hyperlink ref="A443" r:id="rId438"/>
-    <hyperlink ref="A444" r:id="rId439"/>
-    <hyperlink ref="A445" r:id="rId440"/>
-    <hyperlink ref="A446" r:id="rId441"/>
-    <hyperlink ref="A447" r:id="rId442"/>
-    <hyperlink ref="A448" r:id="rId443"/>
-    <hyperlink ref="A449" r:id="rId444"/>
-    <hyperlink ref="A450" r:id="rId445"/>
-    <hyperlink ref="A451" r:id="rId446"/>
-    <hyperlink ref="A452" r:id="rId447"/>
-    <hyperlink ref="A453" r:id="rId448"/>
-    <hyperlink ref="A454" r:id="rId449"/>
-    <hyperlink ref="A455" r:id="rId450"/>
-    <hyperlink ref="A456" r:id="rId451"/>
-    <hyperlink ref="A457" r:id="rId452"/>
-    <hyperlink ref="A458" r:id="rId453"/>
-    <hyperlink ref="A459" r:id="rId454"/>
-    <hyperlink ref="A460" r:id="rId455"/>
-    <hyperlink ref="A461" r:id="rId456"/>
-    <hyperlink ref="A462" r:id="rId457"/>
-    <hyperlink ref="A463" r:id="rId458"/>
-    <hyperlink ref="A464" r:id="rId459"/>
-    <hyperlink ref="A465" r:id="rId460"/>
-    <hyperlink ref="A466" r:id="rId461"/>
-    <hyperlink ref="A467" r:id="rId462"/>
-    <hyperlink ref="A468" r:id="rId463"/>
-    <hyperlink ref="A469" r:id="rId464"/>
-    <hyperlink ref="A470" r:id="rId465"/>
-    <hyperlink ref="A471" r:id="rId466"/>
-    <hyperlink ref="A472" r:id="rId467"/>
-    <hyperlink ref="A473" r:id="rId468"/>
-    <hyperlink ref="A474" r:id="rId469"/>
-    <hyperlink ref="A475" r:id="rId470"/>
-    <hyperlink ref="A476" r:id="rId471"/>
-    <hyperlink ref="A477" r:id="rId472"/>
-    <hyperlink ref="A478" r:id="rId473"/>
-    <hyperlink ref="A479" r:id="rId474"/>
-    <hyperlink ref="A480" r:id="rId475"/>
-    <hyperlink ref="A481" r:id="rId476"/>
-    <hyperlink ref="A482" r:id="rId477"/>
-    <hyperlink ref="A483" r:id="rId478"/>
-    <hyperlink ref="A484" r:id="rId479"/>
-    <hyperlink ref="A485" r:id="rId480"/>
-    <hyperlink ref="A486" r:id="rId481"/>
-    <hyperlink ref="A487" r:id="rId482"/>
-    <hyperlink ref="A488" r:id="rId483"/>
-    <hyperlink ref="A489" r:id="rId484"/>
-    <hyperlink ref="A490" r:id="rId485"/>
-    <hyperlink ref="A491" r:id="rId486"/>
-    <hyperlink ref="A492" r:id="rId487"/>
-    <hyperlink ref="A493" r:id="rId488"/>
-    <hyperlink ref="A494" r:id="rId489"/>
-    <hyperlink ref="A495" r:id="rId490"/>
-    <hyperlink ref="A496" r:id="rId491"/>
-    <hyperlink ref="A497" r:id="rId492"/>
-    <hyperlink ref="A498" r:id="rId493"/>
-    <hyperlink ref="A499" r:id="rId494"/>
-    <hyperlink ref="A500" r:id="rId495"/>
-    <hyperlink ref="A501" r:id="rId496"/>
-    <hyperlink ref="A502" r:id="rId497"/>
-    <hyperlink ref="A503" r:id="rId498"/>
-    <hyperlink ref="A504" r:id="rId499"/>
-    <hyperlink ref="A505" r:id="rId500"/>
-    <hyperlink ref="A506" r:id="rId501"/>
-    <hyperlink ref="A507" r:id="rId502"/>
-    <hyperlink ref="A508" r:id="rId503"/>
-    <hyperlink ref="A509" r:id="rId504"/>
-    <hyperlink ref="A510" r:id="rId505"/>
-    <hyperlink ref="A511" r:id="rId506"/>
-    <hyperlink ref="A512" r:id="rId507"/>
-    <hyperlink ref="A513" r:id="rId508"/>
-    <hyperlink ref="A514" r:id="rId509"/>
-    <hyperlink ref="A515" r:id="rId510"/>
-    <hyperlink ref="A516" r:id="rId511"/>
-    <hyperlink ref="A517" r:id="rId512"/>
-    <hyperlink ref="A518" r:id="rId513"/>
-    <hyperlink ref="A519" r:id="rId514"/>
-    <hyperlink ref="A520" r:id="rId515"/>
-    <hyperlink ref="A521" r:id="rId516"/>
-    <hyperlink ref="A522" r:id="rId517"/>
-    <hyperlink ref="A523" r:id="rId518"/>
-    <hyperlink ref="A524" r:id="rId519"/>
-    <hyperlink ref="A525" r:id="rId520"/>
-    <hyperlink ref="A526" r:id="rId521"/>
-    <hyperlink ref="A527" r:id="rId522"/>
-    <hyperlink ref="A528" r:id="rId523"/>
-    <hyperlink ref="A529" r:id="rId524"/>
-    <hyperlink ref="A530" r:id="rId525"/>
-    <hyperlink ref="A531" r:id="rId526"/>
-    <hyperlink ref="A532" r:id="rId527"/>
-    <hyperlink ref="A533" r:id="rId528"/>
-    <hyperlink ref="A534" r:id="rId529"/>
-    <hyperlink ref="A535" r:id="rId530"/>
-    <hyperlink ref="A536" r:id="rId531"/>
-    <hyperlink ref="A537" r:id="rId532"/>
-    <hyperlink ref="A538" r:id="rId533"/>
-    <hyperlink ref="A539" r:id="rId534"/>
-    <hyperlink ref="A540" r:id="rId535"/>
-    <hyperlink ref="A541" r:id="rId536"/>
-    <hyperlink ref="A542" r:id="rId537"/>
-    <hyperlink ref="A543" r:id="rId538"/>
-    <hyperlink ref="A544" r:id="rId539"/>
-    <hyperlink ref="A545" r:id="rId540"/>
-    <hyperlink ref="A546" r:id="rId541"/>
-    <hyperlink ref="A547" r:id="rId542"/>
-    <hyperlink ref="A548" r:id="rId543"/>
-    <hyperlink ref="A549" r:id="rId544"/>
-    <hyperlink ref="A550" r:id="rId545"/>
-    <hyperlink ref="A551" r:id="rId546"/>
-    <hyperlink ref="A552" r:id="rId547"/>
-    <hyperlink ref="A553" r:id="rId548"/>
-    <hyperlink ref="A554" r:id="rId549"/>
-    <hyperlink ref="A555" r:id="rId550"/>
-    <hyperlink ref="A556" r:id="rId551"/>
-    <hyperlink ref="A557" r:id="rId552"/>
-    <hyperlink ref="A558" r:id="rId553"/>
-    <hyperlink ref="A559" r:id="rId554"/>
-    <hyperlink ref="A560" r:id="rId555"/>
-    <hyperlink ref="A561" r:id="rId556"/>
-    <hyperlink ref="A562" r:id="rId557"/>
-    <hyperlink ref="A563" r:id="rId558"/>
-    <hyperlink ref="A564" r:id="rId559"/>
-    <hyperlink ref="A565" r:id="rId560"/>
-    <hyperlink ref="A566" r:id="rId561"/>
-    <hyperlink ref="A567" r:id="rId562"/>
-    <hyperlink ref="A568" r:id="rId563"/>
-    <hyperlink ref="A569" r:id="rId564"/>
-    <hyperlink ref="A570" r:id="rId565"/>
-    <hyperlink ref="A571" r:id="rId566"/>
-    <hyperlink ref="A572" r:id="rId567"/>
-    <hyperlink ref="A573" r:id="rId568"/>
-    <hyperlink ref="A579" r:id="rId569"/>
-    <hyperlink ref="A576" r:id="rId570"/>
-    <hyperlink ref="A577" r:id="rId571"/>
-    <hyperlink ref="A578" r:id="rId572"/>
-    <hyperlink ref="A580" r:id="rId573"/>
-    <hyperlink ref="A581" r:id="rId574"/>
-    <hyperlink ref="A582" r:id="rId575"/>
-    <hyperlink ref="A583" r:id="rId576"/>
-    <hyperlink ref="A584" r:id="rId577"/>
-    <hyperlink ref="A585" r:id="rId578"/>
-    <hyperlink ref="A586" r:id="rId579"/>
-    <hyperlink ref="A587" r:id="rId580"/>
-    <hyperlink ref="A588" r:id="rId581"/>
-    <hyperlink ref="A589" r:id="rId582"/>
-    <hyperlink ref="A590" r:id="rId583"/>
-    <hyperlink ref="A591" r:id="rId584"/>
-    <hyperlink ref="A592" r:id="rId585"/>
-    <hyperlink ref="A593" r:id="rId586"/>
-    <hyperlink ref="A594" r:id="rId587"/>
-    <hyperlink ref="A595" r:id="rId588"/>
-    <hyperlink ref="A596" r:id="rId589"/>
-    <hyperlink ref="A597" r:id="rId590"/>
-    <hyperlink ref="A598" r:id="rId591"/>
-    <hyperlink ref="A599" r:id="rId592"/>
-    <hyperlink ref="A600" r:id="rId593"/>
-    <hyperlink ref="A601" r:id="rId594"/>
-    <hyperlink ref="A602" r:id="rId595"/>
-    <hyperlink ref="A603" r:id="rId596"/>
-    <hyperlink ref="A604" r:id="rId597"/>
-    <hyperlink ref="A605" r:id="rId598"/>
-    <hyperlink ref="A606" r:id="rId599"/>
-    <hyperlink ref="A607" r:id="rId600"/>
-    <hyperlink ref="A608" r:id="rId601"/>
-    <hyperlink ref="A609" r:id="rId602"/>
-    <hyperlink ref="A610" r:id="rId603"/>
-    <hyperlink ref="A611" r:id="rId604"/>
-    <hyperlink ref="A612" r:id="rId605"/>
-    <hyperlink ref="A613" r:id="rId606"/>
-    <hyperlink ref="A614" r:id="rId607"/>
-    <hyperlink ref="A615" r:id="rId608"/>
-    <hyperlink ref="A616" r:id="rId609"/>
-    <hyperlink ref="A617" r:id="rId610"/>
-    <hyperlink ref="A618" r:id="rId611"/>
-    <hyperlink ref="A619" r:id="rId612"/>
-    <hyperlink ref="A620" r:id="rId613"/>
-    <hyperlink ref="A621" r:id="rId614"/>
-    <hyperlink ref="A622" r:id="rId615"/>
-    <hyperlink ref="A623" r:id="rId616"/>
-    <hyperlink ref="A624" r:id="rId617"/>
-    <hyperlink ref="A625" r:id="rId618"/>
-    <hyperlink ref="A626" r:id="rId619"/>
-    <hyperlink ref="A627" r:id="rId620"/>
-    <hyperlink ref="A628" r:id="rId621"/>
-    <hyperlink ref="A629" r:id="rId622"/>
-    <hyperlink ref="A630" r:id="rId623"/>
-    <hyperlink ref="A631" r:id="rId624"/>
-    <hyperlink ref="A632" r:id="rId625"/>
-    <hyperlink ref="A633" r:id="rId626"/>
-    <hyperlink ref="A634" r:id="rId627"/>
-    <hyperlink ref="A635" r:id="rId628"/>
-    <hyperlink ref="A636" r:id="rId629"/>
-    <hyperlink ref="A637" r:id="rId630"/>
-    <hyperlink ref="A638" r:id="rId631"/>
-    <hyperlink ref="A639" r:id="rId632"/>
-    <hyperlink ref="A640" r:id="rId633"/>
-    <hyperlink ref="A641" r:id="rId634"/>
-    <hyperlink ref="A642" r:id="rId635"/>
-    <hyperlink ref="A643" r:id="rId636"/>
-    <hyperlink ref="A644" r:id="rId637"/>
-    <hyperlink ref="A645" r:id="rId638"/>
-    <hyperlink ref="A646" r:id="rId639"/>
-    <hyperlink ref="A647" r:id="rId640"/>
-    <hyperlink ref="A648" r:id="rId641"/>
-    <hyperlink ref="A649" r:id="rId642"/>
-    <hyperlink ref="A650" r:id="rId643"/>
-    <hyperlink ref="A651" r:id="rId644"/>
-    <hyperlink ref="A652" r:id="rId645"/>
-    <hyperlink ref="A653" r:id="rId646"/>
-    <hyperlink ref="A654" r:id="rId647"/>
-    <hyperlink ref="A655" r:id="rId648"/>
-    <hyperlink ref="A656" r:id="rId649"/>
-    <hyperlink ref="A657" r:id="rId650"/>
-    <hyperlink ref="A658" r:id="rId651"/>
-    <hyperlink ref="A659" r:id="rId652"/>
-    <hyperlink ref="A660" r:id="rId653"/>
-    <hyperlink ref="A661" r:id="rId654"/>
-    <hyperlink ref="A662" r:id="rId655"/>
-    <hyperlink ref="A663" r:id="rId656"/>
-    <hyperlink ref="A664" r:id="rId657"/>
-    <hyperlink ref="A665" r:id="rId658"/>
-    <hyperlink ref="A666" r:id="rId659"/>
-    <hyperlink ref="A667" r:id="rId660"/>
-    <hyperlink ref="A668" r:id="rId661"/>
-    <hyperlink ref="A669" r:id="rId662"/>
-    <hyperlink ref="A670" r:id="rId663"/>
-    <hyperlink ref="A671" r:id="rId664"/>
-    <hyperlink ref="A672" r:id="rId665"/>
-    <hyperlink ref="A673" r:id="rId666"/>
-    <hyperlink ref="A674" r:id="rId667"/>
-    <hyperlink ref="A675" r:id="rId668"/>
-    <hyperlink ref="A676" r:id="rId669"/>
-    <hyperlink ref="A677" r:id="rId670"/>
-    <hyperlink ref="A678" r:id="rId671"/>
-    <hyperlink ref="A679" r:id="rId672"/>
-    <hyperlink ref="A680" r:id="rId673"/>
-    <hyperlink ref="A681" r:id="rId674"/>
-    <hyperlink ref="A682" r:id="rId675"/>
-    <hyperlink ref="A683" r:id="rId676"/>
-    <hyperlink ref="A684" r:id="rId677"/>
-    <hyperlink ref="A685" r:id="rId678"/>
-    <hyperlink ref="A686" r:id="rId679"/>
-    <hyperlink ref="A687" r:id="rId680"/>
-    <hyperlink ref="A688" r:id="rId681"/>
-    <hyperlink ref="A689" r:id="rId682"/>
-    <hyperlink ref="A694" r:id="rId683"/>
-    <hyperlink ref="A695" r:id="rId684"/>
-    <hyperlink ref="A696" r:id="rId685"/>
-    <hyperlink ref="A697" r:id="rId686"/>
-    <hyperlink ref="A698" r:id="rId687"/>
-    <hyperlink ref="A699" r:id="rId688"/>
-    <hyperlink ref="A700" r:id="rId689"/>
-    <hyperlink ref="A701" r:id="rId690"/>
-    <hyperlink ref="A702" r:id="rId691"/>
-    <hyperlink ref="A703" r:id="rId692"/>
-    <hyperlink ref="A704" r:id="rId693"/>
-    <hyperlink ref="A705" r:id="rId694"/>
-    <hyperlink ref="A706" r:id="rId695"/>
-    <hyperlink ref="A707" r:id="rId696"/>
-    <hyperlink ref="A708" r:id="rId697"/>
-    <hyperlink ref="A709" r:id="rId698"/>
-    <hyperlink ref="A710" r:id="rId699"/>
-    <hyperlink ref="A711" r:id="rId700"/>
-    <hyperlink ref="A712" r:id="rId701"/>
-    <hyperlink ref="A713" r:id="rId702"/>
-    <hyperlink ref="A714" r:id="rId703"/>
-    <hyperlink ref="A715" r:id="rId704"/>
-    <hyperlink ref="A716" r:id="rId705"/>
-    <hyperlink ref="A717" r:id="rId706"/>
-    <hyperlink ref="A718" r:id="rId707"/>
-    <hyperlink ref="A719" r:id="rId708"/>
-    <hyperlink ref="A720" r:id="rId709"/>
-    <hyperlink ref="A721" r:id="rId710"/>
-    <hyperlink ref="A722" r:id="rId711"/>
-    <hyperlink ref="A723" r:id="rId712"/>
-    <hyperlink ref="A724" r:id="rId713"/>
-    <hyperlink ref="A725" r:id="rId714"/>
-    <hyperlink ref="A726" r:id="rId715"/>
-    <hyperlink ref="A727" r:id="rId716"/>
-    <hyperlink ref="A728" r:id="rId717"/>
-    <hyperlink ref="A729" r:id="rId718"/>
-    <hyperlink ref="A730" r:id="rId719"/>
-    <hyperlink ref="A731" r:id="rId720"/>
-    <hyperlink ref="A732" r:id="rId721"/>
-    <hyperlink ref="A733" r:id="rId722"/>
-    <hyperlink ref="A734" r:id="rId723"/>
-    <hyperlink ref="A735" r:id="rId724"/>
-    <hyperlink ref="A736" r:id="rId725"/>
-    <hyperlink ref="A737" r:id="rId726"/>
-    <hyperlink ref="A738" r:id="rId727"/>
-    <hyperlink ref="A739" r:id="rId728"/>
-    <hyperlink ref="A740" r:id="rId729"/>
-    <hyperlink ref="A741" r:id="rId730"/>
-    <hyperlink ref="A742" r:id="rId731"/>
-    <hyperlink ref="A743" r:id="rId732"/>
-    <hyperlink ref="A744" r:id="rId733"/>
-    <hyperlink ref="A745" r:id="rId734"/>
-    <hyperlink ref="A746" r:id="rId735"/>
-    <hyperlink ref="A747" r:id="rId736"/>
-    <hyperlink ref="A748" r:id="rId737"/>
-    <hyperlink ref="A749" r:id="rId738"/>
-    <hyperlink ref="A750" r:id="rId739"/>
-    <hyperlink ref="A751" r:id="rId740"/>
-    <hyperlink ref="A752" r:id="rId741"/>
-    <hyperlink ref="A753" r:id="rId742"/>
-    <hyperlink ref="A754" r:id="rId743"/>
-    <hyperlink ref="A755" r:id="rId744"/>
-    <hyperlink ref="A756" r:id="rId745"/>
-    <hyperlink ref="A757" r:id="rId746"/>
-    <hyperlink ref="A758" r:id="rId747"/>
-    <hyperlink ref="A759" r:id="rId748"/>
-    <hyperlink ref="A760" r:id="rId749"/>
-    <hyperlink ref="A761" r:id="rId750"/>
-    <hyperlink ref="A762" r:id="rId751"/>
-    <hyperlink ref="A763" r:id="rId752"/>
-    <hyperlink ref="A764" r:id="rId753"/>
-    <hyperlink ref="A765" r:id="rId754"/>
-    <hyperlink ref="A766" r:id="rId755"/>
-    <hyperlink ref="A768" r:id="rId756"/>
-    <hyperlink ref="A769" r:id="rId757"/>
-    <hyperlink ref="A770" r:id="rId758"/>
-    <hyperlink ref="A771" r:id="rId759"/>
-    <hyperlink ref="A772" r:id="rId760"/>
-    <hyperlink ref="A773" r:id="rId761"/>
-    <hyperlink ref="A774" r:id="rId762"/>
-    <hyperlink ref="A775" r:id="rId763"/>
-    <hyperlink ref="A776" r:id="rId764"/>
-    <hyperlink ref="A777" r:id="rId765"/>
-    <hyperlink ref="A778" r:id="rId766"/>
-    <hyperlink ref="A779" r:id="rId767"/>
-    <hyperlink ref="A780" r:id="rId768"/>
-    <hyperlink ref="A781" r:id="rId769"/>
-    <hyperlink ref="A782" r:id="rId770"/>
-    <hyperlink ref="A783" r:id="rId771"/>
-    <hyperlink ref="A784" r:id="rId772"/>
-    <hyperlink ref="A785" r:id="rId773"/>
-    <hyperlink ref="A786" r:id="rId774"/>
-    <hyperlink ref="A787" r:id="rId775"/>
-    <hyperlink ref="A788" r:id="rId776"/>
-    <hyperlink ref="A789" r:id="rId777"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A16" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A17" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A18" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A20" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A21" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A23" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A24" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A25" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A26" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A27" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A28" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A29" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A30" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A31" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A32" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A33" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A34" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A35" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A36" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A37" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A38" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A39" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A40" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A41" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A42" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A43" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A44" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A45" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A46" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A47" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A48" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A49" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A50" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A51" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A52" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A53" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A54" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A55" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A56" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="A57" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A58" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="A59" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="A60" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="A61" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="A62" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="A63" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="A64" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="A65" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="A66" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="A67" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="A68" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="A69" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="A70" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="A72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="A73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="A74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="A75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="A76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="A77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="A78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="A79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="A80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="A81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="A82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="A83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="A84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="A85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="A86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="A87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="A88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="A89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="A90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="A91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="A92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="A93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="A94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="A95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="A96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="A97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="A98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="A99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="A100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="A101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="A102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="A103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="A104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="A105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="A106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="A107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="A108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="A109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="A110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="A111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="A112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="A113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="A114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="A115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="A116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="A117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="A118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="A119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="A120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="A121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="A122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="A123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="A124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="A125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="A126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="A127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="A128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="A129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="A130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="A131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="A132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="A133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="A134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="A135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="A136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="A137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="A138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="A139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="A140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="A141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="A142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="A143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="A144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="A145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="A146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="A147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="A149" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="A148" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="A150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="A151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="A152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="A153" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="A154" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="A155" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="A156" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="A157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="A158" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="A159" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="A160" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="A161" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="A162" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="A163" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="A164" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="A165" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="A166" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="A167" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="A168" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="A169" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="A170" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="A171" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="A172" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="A173" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="A174" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="A175" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="A176" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="A177" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="A178" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="A179" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="A180" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="A181" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="A182" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="A183" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="A184" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="A185" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="A186" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="A187" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="A188" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="A189" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="A190" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="A191" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="A192" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="A193" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="A194" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="A195" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="A196" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="A197" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="A198" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="A199" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="A200" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="A201" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="A202" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="A203" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="A204" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="A205" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="A206" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="A207" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="A208" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="A209" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="A210" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="A211" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="A212" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="A213" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="A214" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="A215" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="A216" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="A217" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="A218" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="A219" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="A220" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="A221" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="A222" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="A223" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="A224" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="A225" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="A226" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="A227" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="A228" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="A229" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="A230" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="A231" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="A232" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="A233" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="A234" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="A235" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="A236" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="A237" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="A241" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="A242" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="A243" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="A244" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="A245" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="A246" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="A247" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="A248" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="A249" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="A250" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="A251" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="A252" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="A253" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="A254" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="A255" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="A256" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="A257" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="A258" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="A259" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="A260" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="A261" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="A262" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="A263" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="A264" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="A265" display="https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgMlILxBQ6Xl2H8pyj5G9LO8l4EjSbmFRhv65tbDZzyfc58LLImA2LUwEee9eQ2SDYoUX9yIeaILEPUt_PQyyG5bMKBaFlGyNRhINFXrg2KH61x3dxSYL75BjyNH-0Dh__1iFALei9vtGTF_98X7BbCJXCpcyi7PEA2-gpqQpdy2s546EZ8NnoLHXQpblA/s920/1" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="A266" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="A267" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="A268" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="A269" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="A270" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="A271" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="A272" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="A273" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="A274" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="A275" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="A276" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="A277" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="A278" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="A279" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="A280" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="A281" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="A282" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="A283" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="A284" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="A285" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="A286" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="A287" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="A288" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="A289" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="A290" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="A291" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="A292" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="A293" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="A294" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="A295" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="A296" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="A297" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="A298" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="A299" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="A300" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="A301" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="A302" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="A303" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="A304" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="A305" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="A306" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="A307" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="A308" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="A309" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="A310" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="A311" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="A312" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="A313" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="A314" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="A315" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="A316" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="A317" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="A318" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="A319" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="A320" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="A321" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="A322" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="A323" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="A324" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="A325" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="A326" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="A327" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="A328" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="A329" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="A330" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="A331" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="A332" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="A333" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="A334" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="A335" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="A336" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="A337" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="A338" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="A339" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="A340" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="A341" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="A342" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="A343" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="A344" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="A345" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="A346" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="A347" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="A348" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="A349" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="A350" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="A351" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="A352" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="A353" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="A354" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="A355" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="A356" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="A357" r:id="rId352" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="A358" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="A359" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="A360" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="A361" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="A362" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="A363" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="A364" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="A365" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="A366" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="A367" r:id="rId362" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="A368" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="A369" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="A370" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="A371" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="A372" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="A373" r:id="rId368" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="A374" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="A375" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="A376" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="A377" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="A378" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="A379" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="A380" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="A381" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="A382" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="A383" r:id="rId378" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="A384" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="A385" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="A386" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="A387" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="A388" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="A389" r:id="rId384" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="A390" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="A391" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="A392" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="A393" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="A394" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="A395" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="A396" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="A397" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="A398" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="A399" r:id="rId394" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="A400" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="A401" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="A402" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="A403" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="A404" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="A405" r:id="rId400" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="A406" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="A407" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="A408" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="A409" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="A410" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="A411" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="A412" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="A413" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="A415" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="A414" r:id="rId410" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="A416" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="A417" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="A418" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="A419" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="A420" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="A421" r:id="rId416" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="A422" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="A423" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="A424" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="A425" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="A426" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="A427" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="A428" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="A429" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="A430" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="A431" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="A432" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="A433" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="A434" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="A435" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="A436" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="A437" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="A438" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="A439" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="A440" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="A441" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="A442" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="A443" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="A444" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="A445" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="A446" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="A447" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="A448" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="A449" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="A450" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="A451" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
+    <hyperlink ref="A452" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
+    <hyperlink ref="A453" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
+    <hyperlink ref="A454" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
+    <hyperlink ref="A455" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
+    <hyperlink ref="A456" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
+    <hyperlink ref="A457" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
+    <hyperlink ref="A458" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
+    <hyperlink ref="A459" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
+    <hyperlink ref="A460" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
+    <hyperlink ref="A461" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="A462" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
+    <hyperlink ref="A463" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
+    <hyperlink ref="A464" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
+    <hyperlink ref="A465" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
+    <hyperlink ref="A466" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
+    <hyperlink ref="A467" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
+    <hyperlink ref="A468" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
+    <hyperlink ref="A469" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="A470" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
+    <hyperlink ref="A471" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
+    <hyperlink ref="A472" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
+    <hyperlink ref="A473" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
+    <hyperlink ref="A474" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
+    <hyperlink ref="A475" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
+    <hyperlink ref="A476" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
+    <hyperlink ref="A477" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
+    <hyperlink ref="A478" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
+    <hyperlink ref="A479" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
+    <hyperlink ref="A480" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
+    <hyperlink ref="A481" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
+    <hyperlink ref="A482" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
+    <hyperlink ref="A483" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
+    <hyperlink ref="A484" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
+    <hyperlink ref="A485" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
+    <hyperlink ref="A486" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
+    <hyperlink ref="A487" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
+    <hyperlink ref="A488" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
+    <hyperlink ref="A489" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
+    <hyperlink ref="A490" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
+    <hyperlink ref="A491" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
+    <hyperlink ref="A492" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
+    <hyperlink ref="A493" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
+    <hyperlink ref="A494" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
+    <hyperlink ref="A495" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
+    <hyperlink ref="A496" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
+    <hyperlink ref="A497" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
+    <hyperlink ref="A498" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
+    <hyperlink ref="A499" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
+    <hyperlink ref="A500" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
+    <hyperlink ref="A501" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
+    <hyperlink ref="A502" r:id="rId497" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
+    <hyperlink ref="A503" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
+    <hyperlink ref="A504" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
+    <hyperlink ref="A505" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
+    <hyperlink ref="A506" r:id="rId501" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
+    <hyperlink ref="A507" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
+    <hyperlink ref="A508" r:id="rId503" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
+    <hyperlink ref="A509" r:id="rId504" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
+    <hyperlink ref="A510" r:id="rId505" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
+    <hyperlink ref="A511" r:id="rId506" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
+    <hyperlink ref="A512" r:id="rId507" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
+    <hyperlink ref="A513" r:id="rId508" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
+    <hyperlink ref="A514" r:id="rId509" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
+    <hyperlink ref="A515" r:id="rId510" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
+    <hyperlink ref="A516" r:id="rId511" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
+    <hyperlink ref="A517" r:id="rId512" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
+    <hyperlink ref="A518" r:id="rId513" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
+    <hyperlink ref="A519" r:id="rId514" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
+    <hyperlink ref="A520" r:id="rId515" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
+    <hyperlink ref="A521" r:id="rId516" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
+    <hyperlink ref="A522" r:id="rId517" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
+    <hyperlink ref="A523" r:id="rId518" xr:uid="{00000000-0004-0000-0000-000006020000}"/>
+    <hyperlink ref="A524" r:id="rId519" xr:uid="{00000000-0004-0000-0000-000007020000}"/>
+    <hyperlink ref="A525" r:id="rId520" xr:uid="{00000000-0004-0000-0000-000008020000}"/>
+    <hyperlink ref="A526" r:id="rId521" xr:uid="{00000000-0004-0000-0000-000009020000}"/>
+    <hyperlink ref="A527" r:id="rId522" xr:uid="{00000000-0004-0000-0000-00000A020000}"/>
+    <hyperlink ref="A528" r:id="rId523" xr:uid="{00000000-0004-0000-0000-00000B020000}"/>
+    <hyperlink ref="A529" r:id="rId524" xr:uid="{00000000-0004-0000-0000-00000C020000}"/>
+    <hyperlink ref="A530" r:id="rId525" xr:uid="{00000000-0004-0000-0000-00000D020000}"/>
+    <hyperlink ref="A531" r:id="rId526" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
+    <hyperlink ref="A532" r:id="rId527" xr:uid="{00000000-0004-0000-0000-00000F020000}"/>
+    <hyperlink ref="A533" r:id="rId528" xr:uid="{00000000-0004-0000-0000-000010020000}"/>
+    <hyperlink ref="A534" r:id="rId529" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
+    <hyperlink ref="A535" r:id="rId530" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
+    <hyperlink ref="A536" r:id="rId531" xr:uid="{00000000-0004-0000-0000-000013020000}"/>
+    <hyperlink ref="A537" r:id="rId532" xr:uid="{00000000-0004-0000-0000-000014020000}"/>
+    <hyperlink ref="A538" r:id="rId533" xr:uid="{00000000-0004-0000-0000-000015020000}"/>
+    <hyperlink ref="A539" r:id="rId534" xr:uid="{00000000-0004-0000-0000-000016020000}"/>
+    <hyperlink ref="A540" r:id="rId535" xr:uid="{00000000-0004-0000-0000-000017020000}"/>
+    <hyperlink ref="A541" r:id="rId536" xr:uid="{00000000-0004-0000-0000-000018020000}"/>
+    <hyperlink ref="A542" r:id="rId537" xr:uid="{00000000-0004-0000-0000-000019020000}"/>
+    <hyperlink ref="A543" r:id="rId538" xr:uid="{00000000-0004-0000-0000-00001A020000}"/>
+    <hyperlink ref="A544" r:id="rId539" xr:uid="{00000000-0004-0000-0000-00001B020000}"/>
+    <hyperlink ref="A545" r:id="rId540" xr:uid="{00000000-0004-0000-0000-00001C020000}"/>
+    <hyperlink ref="A546" r:id="rId541" xr:uid="{00000000-0004-0000-0000-00001D020000}"/>
+    <hyperlink ref="A547" r:id="rId542" xr:uid="{00000000-0004-0000-0000-00001E020000}"/>
+    <hyperlink ref="A548" r:id="rId543" xr:uid="{00000000-0004-0000-0000-00001F020000}"/>
+    <hyperlink ref="A549" r:id="rId544" xr:uid="{00000000-0004-0000-0000-000020020000}"/>
+    <hyperlink ref="A550" r:id="rId545" xr:uid="{00000000-0004-0000-0000-000021020000}"/>
+    <hyperlink ref="A551" r:id="rId546" xr:uid="{00000000-0004-0000-0000-000022020000}"/>
+    <hyperlink ref="A552" r:id="rId547" xr:uid="{00000000-0004-0000-0000-000023020000}"/>
+    <hyperlink ref="A553" r:id="rId548" xr:uid="{00000000-0004-0000-0000-000024020000}"/>
+    <hyperlink ref="A554" r:id="rId549" xr:uid="{00000000-0004-0000-0000-000025020000}"/>
+    <hyperlink ref="A555" r:id="rId550" xr:uid="{00000000-0004-0000-0000-000026020000}"/>
+    <hyperlink ref="A556" r:id="rId551" xr:uid="{00000000-0004-0000-0000-000027020000}"/>
+    <hyperlink ref="A557" r:id="rId552" xr:uid="{00000000-0004-0000-0000-000028020000}"/>
+    <hyperlink ref="A558" r:id="rId553" xr:uid="{00000000-0004-0000-0000-000029020000}"/>
+    <hyperlink ref="A559" r:id="rId554" xr:uid="{00000000-0004-0000-0000-00002A020000}"/>
+    <hyperlink ref="A560" r:id="rId555" xr:uid="{00000000-0004-0000-0000-00002B020000}"/>
+    <hyperlink ref="A561" r:id="rId556" xr:uid="{00000000-0004-0000-0000-00002C020000}"/>
+    <hyperlink ref="A562" r:id="rId557" xr:uid="{00000000-0004-0000-0000-00002D020000}"/>
+    <hyperlink ref="A563" r:id="rId558" xr:uid="{00000000-0004-0000-0000-00002E020000}"/>
+    <hyperlink ref="A564" r:id="rId559" xr:uid="{00000000-0004-0000-0000-00002F020000}"/>
+    <hyperlink ref="A565" r:id="rId560" xr:uid="{00000000-0004-0000-0000-000030020000}"/>
+    <hyperlink ref="A566" r:id="rId561" xr:uid="{00000000-0004-0000-0000-000031020000}"/>
+    <hyperlink ref="A567" r:id="rId562" xr:uid="{00000000-0004-0000-0000-000032020000}"/>
+    <hyperlink ref="A568" r:id="rId563" xr:uid="{00000000-0004-0000-0000-000033020000}"/>
+    <hyperlink ref="A569" r:id="rId564" xr:uid="{00000000-0004-0000-0000-000034020000}"/>
+    <hyperlink ref="A570" r:id="rId565" xr:uid="{00000000-0004-0000-0000-000035020000}"/>
+    <hyperlink ref="A571" r:id="rId566" xr:uid="{00000000-0004-0000-0000-000036020000}"/>
+    <hyperlink ref="A572" r:id="rId567" xr:uid="{00000000-0004-0000-0000-000037020000}"/>
+    <hyperlink ref="A573" r:id="rId568" xr:uid="{00000000-0004-0000-0000-000038020000}"/>
+    <hyperlink ref="A579" r:id="rId569" xr:uid="{00000000-0004-0000-0000-000039020000}"/>
+    <hyperlink ref="A576" r:id="rId570" xr:uid="{00000000-0004-0000-0000-00003A020000}"/>
+    <hyperlink ref="A577" r:id="rId571" xr:uid="{00000000-0004-0000-0000-00003B020000}"/>
+    <hyperlink ref="A578" r:id="rId572" xr:uid="{00000000-0004-0000-0000-00003C020000}"/>
+    <hyperlink ref="A580" r:id="rId573" xr:uid="{00000000-0004-0000-0000-00003D020000}"/>
+    <hyperlink ref="A581" r:id="rId574" xr:uid="{00000000-0004-0000-0000-00003E020000}"/>
+    <hyperlink ref="A582" r:id="rId575" xr:uid="{00000000-0004-0000-0000-00003F020000}"/>
+    <hyperlink ref="A583" r:id="rId576" xr:uid="{00000000-0004-0000-0000-000040020000}"/>
+    <hyperlink ref="A584" r:id="rId577" xr:uid="{00000000-0004-0000-0000-000041020000}"/>
+    <hyperlink ref="A585" r:id="rId578" xr:uid="{00000000-0004-0000-0000-000042020000}"/>
+    <hyperlink ref="A586" r:id="rId579" xr:uid="{00000000-0004-0000-0000-000043020000}"/>
+    <hyperlink ref="A587" r:id="rId580" xr:uid="{00000000-0004-0000-0000-000044020000}"/>
+    <hyperlink ref="A588" r:id="rId581" xr:uid="{00000000-0004-0000-0000-000045020000}"/>
+    <hyperlink ref="A589" r:id="rId582" xr:uid="{00000000-0004-0000-0000-000046020000}"/>
+    <hyperlink ref="A590" r:id="rId583" xr:uid="{00000000-0004-0000-0000-000047020000}"/>
+    <hyperlink ref="A591" r:id="rId584" xr:uid="{00000000-0004-0000-0000-000048020000}"/>
+    <hyperlink ref="A592" r:id="rId585" xr:uid="{00000000-0004-0000-0000-000049020000}"/>
+    <hyperlink ref="A593" r:id="rId586" xr:uid="{00000000-0004-0000-0000-00004A020000}"/>
+    <hyperlink ref="A594" r:id="rId587" xr:uid="{00000000-0004-0000-0000-00004B020000}"/>
+    <hyperlink ref="A595" r:id="rId588" xr:uid="{00000000-0004-0000-0000-00004C020000}"/>
+    <hyperlink ref="A596" r:id="rId589" xr:uid="{00000000-0004-0000-0000-00004D020000}"/>
+    <hyperlink ref="A597" r:id="rId590" xr:uid="{00000000-0004-0000-0000-00004E020000}"/>
+    <hyperlink ref="A598" r:id="rId591" xr:uid="{00000000-0004-0000-0000-00004F020000}"/>
+    <hyperlink ref="A599" r:id="rId592" xr:uid="{00000000-0004-0000-0000-000050020000}"/>
+    <hyperlink ref="A600" r:id="rId593" xr:uid="{00000000-0004-0000-0000-000051020000}"/>
+    <hyperlink ref="A601" r:id="rId594" xr:uid="{00000000-0004-0000-0000-000052020000}"/>
+    <hyperlink ref="A602" r:id="rId595" xr:uid="{00000000-0004-0000-0000-000053020000}"/>
+    <hyperlink ref="A603" r:id="rId596" xr:uid="{00000000-0004-0000-0000-000054020000}"/>
+    <hyperlink ref="A604" r:id="rId597" xr:uid="{00000000-0004-0000-0000-000055020000}"/>
+    <hyperlink ref="A605" r:id="rId598" xr:uid="{00000000-0004-0000-0000-000056020000}"/>
+    <hyperlink ref="A606" r:id="rId599" xr:uid="{00000000-0004-0000-0000-000057020000}"/>
+    <hyperlink ref="A607" r:id="rId600" xr:uid="{00000000-0004-0000-0000-000058020000}"/>
+    <hyperlink ref="A608" r:id="rId601" xr:uid="{00000000-0004-0000-0000-000059020000}"/>
+    <hyperlink ref="A609" r:id="rId602" xr:uid="{00000000-0004-0000-0000-00005A020000}"/>
+    <hyperlink ref="A610" r:id="rId603" xr:uid="{00000000-0004-0000-0000-00005B020000}"/>
+    <hyperlink ref="A611" r:id="rId604" xr:uid="{00000000-0004-0000-0000-00005C020000}"/>
+    <hyperlink ref="A612" r:id="rId605" xr:uid="{00000000-0004-0000-0000-00005D020000}"/>
+    <hyperlink ref="A613" r:id="rId606" xr:uid="{00000000-0004-0000-0000-00005E020000}"/>
+    <hyperlink ref="A614" r:id="rId607" xr:uid="{00000000-0004-0000-0000-00005F020000}"/>
+    <hyperlink ref="A615" r:id="rId608" xr:uid="{00000000-0004-0000-0000-000060020000}"/>
+    <hyperlink ref="A616" r:id="rId609" xr:uid="{00000000-0004-0000-0000-000061020000}"/>
+    <hyperlink ref="A617" r:id="rId610" xr:uid="{00000000-0004-0000-0000-000062020000}"/>
+    <hyperlink ref="A618" r:id="rId611" xr:uid="{00000000-0004-0000-0000-000063020000}"/>
+    <hyperlink ref="A619" r:id="rId612" xr:uid="{00000000-0004-0000-0000-000064020000}"/>
+    <hyperlink ref="A620" r:id="rId613" xr:uid="{00000000-0004-0000-0000-000065020000}"/>
+    <hyperlink ref="A621" r:id="rId614" xr:uid="{00000000-0004-0000-0000-000066020000}"/>
+    <hyperlink ref="A622" r:id="rId615" xr:uid="{00000000-0004-0000-0000-000067020000}"/>
+    <hyperlink ref="A623" r:id="rId616" xr:uid="{00000000-0004-0000-0000-000068020000}"/>
+    <hyperlink ref="A624" r:id="rId617" xr:uid="{00000000-0004-0000-0000-000069020000}"/>
+    <hyperlink ref="A625" r:id="rId618" xr:uid="{00000000-0004-0000-0000-00006A020000}"/>
+    <hyperlink ref="A626" r:id="rId619" xr:uid="{00000000-0004-0000-0000-00006B020000}"/>
+    <hyperlink ref="A627" r:id="rId620" xr:uid="{00000000-0004-0000-0000-00006C020000}"/>
+    <hyperlink ref="A628" r:id="rId621" xr:uid="{00000000-0004-0000-0000-00006D020000}"/>
+    <hyperlink ref="A629" r:id="rId622" xr:uid="{00000000-0004-0000-0000-00006E020000}"/>
+    <hyperlink ref="A630" r:id="rId623" xr:uid="{00000000-0004-0000-0000-00006F020000}"/>
+    <hyperlink ref="A631" r:id="rId624" xr:uid="{00000000-0004-0000-0000-000070020000}"/>
+    <hyperlink ref="A632" r:id="rId625" xr:uid="{00000000-0004-0000-0000-000071020000}"/>
+    <hyperlink ref="A633" r:id="rId626" xr:uid="{00000000-0004-0000-0000-000072020000}"/>
+    <hyperlink ref="A634" r:id="rId627" xr:uid="{00000000-0004-0000-0000-000073020000}"/>
+    <hyperlink ref="A635" r:id="rId628" xr:uid="{00000000-0004-0000-0000-000074020000}"/>
+    <hyperlink ref="A636" r:id="rId629" xr:uid="{00000000-0004-0000-0000-000075020000}"/>
+    <hyperlink ref="A637" r:id="rId630" xr:uid="{00000000-0004-0000-0000-000076020000}"/>
+    <hyperlink ref="A638" r:id="rId631" xr:uid="{00000000-0004-0000-0000-000077020000}"/>
+    <hyperlink ref="A639" r:id="rId632" xr:uid="{00000000-0004-0000-0000-000078020000}"/>
+    <hyperlink ref="A640" r:id="rId633" xr:uid="{00000000-0004-0000-0000-000079020000}"/>
+    <hyperlink ref="A641" r:id="rId634" xr:uid="{00000000-0004-0000-0000-00007A020000}"/>
+    <hyperlink ref="A642" r:id="rId635" xr:uid="{00000000-0004-0000-0000-00007B020000}"/>
+    <hyperlink ref="A643" r:id="rId636" xr:uid="{00000000-0004-0000-0000-00007C020000}"/>
+    <hyperlink ref="A644" r:id="rId637" xr:uid="{00000000-0004-0000-0000-00007D020000}"/>
+    <hyperlink ref="A645" r:id="rId638" xr:uid="{00000000-0004-0000-0000-00007E020000}"/>
+    <hyperlink ref="A646" r:id="rId639" xr:uid="{00000000-0004-0000-0000-00007F020000}"/>
+    <hyperlink ref="A647" r:id="rId640" xr:uid="{00000000-0004-0000-0000-000080020000}"/>
+    <hyperlink ref="A648" r:id="rId641" xr:uid="{00000000-0004-0000-0000-000081020000}"/>
+    <hyperlink ref="A649" r:id="rId642" xr:uid="{00000000-0004-0000-0000-000082020000}"/>
+    <hyperlink ref="A650" r:id="rId643" xr:uid="{00000000-0004-0000-0000-000083020000}"/>
+    <hyperlink ref="A651" r:id="rId644" xr:uid="{00000000-0004-0000-0000-000084020000}"/>
+    <hyperlink ref="A652" r:id="rId645" xr:uid="{00000000-0004-0000-0000-000085020000}"/>
+    <hyperlink ref="A653" r:id="rId646" xr:uid="{00000000-0004-0000-0000-000086020000}"/>
+    <hyperlink ref="A654" r:id="rId647" xr:uid="{00000000-0004-0000-0000-000087020000}"/>
+    <hyperlink ref="A655" r:id="rId648" xr:uid="{00000000-0004-0000-0000-000088020000}"/>
+    <hyperlink ref="A656" r:id="rId649" xr:uid="{00000000-0004-0000-0000-000089020000}"/>
+    <hyperlink ref="A657" r:id="rId650" xr:uid="{00000000-0004-0000-0000-00008A020000}"/>
+    <hyperlink ref="A658" r:id="rId651" xr:uid="{00000000-0004-0000-0000-00008B020000}"/>
+    <hyperlink ref="A659" r:id="rId652" xr:uid="{00000000-0004-0000-0000-00008C020000}"/>
+    <hyperlink ref="A660" r:id="rId653" xr:uid="{00000000-0004-0000-0000-00008D020000}"/>
+    <hyperlink ref="A661" r:id="rId654" xr:uid="{00000000-0004-0000-0000-00008E020000}"/>
+    <hyperlink ref="A662" r:id="rId655" xr:uid="{00000000-0004-0000-0000-00008F020000}"/>
+    <hyperlink ref="A663" r:id="rId656" xr:uid="{00000000-0004-0000-0000-000090020000}"/>
+    <hyperlink ref="A664" r:id="rId657" xr:uid="{00000000-0004-0000-0000-000091020000}"/>
+    <hyperlink ref="A665" r:id="rId658" xr:uid="{00000000-0004-0000-0000-000092020000}"/>
+    <hyperlink ref="A666" r:id="rId659" xr:uid="{00000000-0004-0000-0000-000093020000}"/>
+    <hyperlink ref="A667" r:id="rId660" xr:uid="{00000000-0004-0000-0000-000094020000}"/>
+    <hyperlink ref="A668" r:id="rId661" xr:uid="{00000000-0004-0000-0000-000095020000}"/>
+    <hyperlink ref="A669" r:id="rId662" xr:uid="{00000000-0004-0000-0000-000096020000}"/>
+    <hyperlink ref="A670" r:id="rId663" xr:uid="{00000000-0004-0000-0000-000097020000}"/>
+    <hyperlink ref="A671" r:id="rId664" xr:uid="{00000000-0004-0000-0000-000098020000}"/>
+    <hyperlink ref="A672" r:id="rId665" xr:uid="{00000000-0004-0000-0000-000099020000}"/>
+    <hyperlink ref="A673" r:id="rId666" xr:uid="{00000000-0004-0000-0000-00009A020000}"/>
+    <hyperlink ref="A674" r:id="rId667" xr:uid="{00000000-0004-0000-0000-00009B020000}"/>
+    <hyperlink ref="A675" r:id="rId668" xr:uid="{00000000-0004-0000-0000-00009C020000}"/>
+    <hyperlink ref="A676" r:id="rId669" xr:uid="{00000000-0004-0000-0000-00009D020000}"/>
+    <hyperlink ref="A677" r:id="rId670" xr:uid="{00000000-0004-0000-0000-00009E020000}"/>
+    <hyperlink ref="A678" r:id="rId671" xr:uid="{00000000-0004-0000-0000-00009F020000}"/>
+    <hyperlink ref="A679" r:id="rId672" xr:uid="{00000000-0004-0000-0000-0000A0020000}"/>
+    <hyperlink ref="A680" r:id="rId673" xr:uid="{00000000-0004-0000-0000-0000A1020000}"/>
+    <hyperlink ref="A681" r:id="rId674" xr:uid="{00000000-0004-0000-0000-0000A2020000}"/>
+    <hyperlink ref="A682" r:id="rId675" xr:uid="{00000000-0004-0000-0000-0000A3020000}"/>
+    <hyperlink ref="A683" r:id="rId676" xr:uid="{00000000-0004-0000-0000-0000A4020000}"/>
+    <hyperlink ref="A684" r:id="rId677" xr:uid="{00000000-0004-0000-0000-0000A5020000}"/>
+    <hyperlink ref="A685" r:id="rId678" xr:uid="{00000000-0004-0000-0000-0000A6020000}"/>
+    <hyperlink ref="A686" r:id="rId679" xr:uid="{00000000-0004-0000-0000-0000A7020000}"/>
+    <hyperlink ref="A687" r:id="rId680" xr:uid="{00000000-0004-0000-0000-0000A8020000}"/>
+    <hyperlink ref="A688" r:id="rId681" xr:uid="{00000000-0004-0000-0000-0000A9020000}"/>
+    <hyperlink ref="A689" r:id="rId682" xr:uid="{00000000-0004-0000-0000-0000AA020000}"/>
+    <hyperlink ref="A694" r:id="rId683" xr:uid="{00000000-0004-0000-0000-0000AB020000}"/>
+    <hyperlink ref="A695" r:id="rId684" xr:uid="{00000000-0004-0000-0000-0000AC020000}"/>
+    <hyperlink ref="A696" r:id="rId685" xr:uid="{00000000-0004-0000-0000-0000AD020000}"/>
+    <hyperlink ref="A697" r:id="rId686" xr:uid="{00000000-0004-0000-0000-0000AE020000}"/>
+    <hyperlink ref="A698" r:id="rId687" xr:uid="{00000000-0004-0000-0000-0000AF020000}"/>
+    <hyperlink ref="A699" r:id="rId688" xr:uid="{00000000-0004-0000-0000-0000B0020000}"/>
+    <hyperlink ref="A700" r:id="rId689" xr:uid="{00000000-0004-0000-0000-0000B1020000}"/>
+    <hyperlink ref="A701" r:id="rId690" xr:uid="{00000000-0004-0000-0000-0000B2020000}"/>
+    <hyperlink ref="A702" r:id="rId691" xr:uid="{00000000-0004-0000-0000-0000B3020000}"/>
+    <hyperlink ref="A703" r:id="rId692" xr:uid="{00000000-0004-0000-0000-0000B4020000}"/>
+    <hyperlink ref="A704" r:id="rId693" xr:uid="{00000000-0004-0000-0000-0000B5020000}"/>
+    <hyperlink ref="A705" r:id="rId694" xr:uid="{00000000-0004-0000-0000-0000B6020000}"/>
+    <hyperlink ref="A706" r:id="rId695" xr:uid="{00000000-0004-0000-0000-0000B7020000}"/>
+    <hyperlink ref="A707" r:id="rId696" xr:uid="{00000000-0004-0000-0000-0000B8020000}"/>
+    <hyperlink ref="A708" r:id="rId697" xr:uid="{00000000-0004-0000-0000-0000B9020000}"/>
+    <hyperlink ref="A709" r:id="rId698" xr:uid="{00000000-0004-0000-0000-0000BA020000}"/>
+    <hyperlink ref="A710" r:id="rId699" xr:uid="{00000000-0004-0000-0000-0000BB020000}"/>
+    <hyperlink ref="A711" r:id="rId700" xr:uid="{00000000-0004-0000-0000-0000BC020000}"/>
+    <hyperlink ref="A712" r:id="rId701" xr:uid="{00000000-0004-0000-0000-0000BD020000}"/>
+    <hyperlink ref="A713" r:id="rId702" xr:uid="{00000000-0004-0000-0000-0000BE020000}"/>
+    <hyperlink ref="A714" r:id="rId703" xr:uid="{00000000-0004-0000-0000-0000BF020000}"/>
+    <hyperlink ref="A715" r:id="rId704" xr:uid="{00000000-0004-0000-0000-0000C0020000}"/>
+    <hyperlink ref="A716" r:id="rId705" xr:uid="{00000000-0004-0000-0000-0000C1020000}"/>
+    <hyperlink ref="A717" r:id="rId706" xr:uid="{00000000-0004-0000-0000-0000C2020000}"/>
+    <hyperlink ref="A718" r:id="rId707" xr:uid="{00000000-0004-0000-0000-0000C3020000}"/>
+    <hyperlink ref="A719" r:id="rId708" xr:uid="{00000000-0004-0000-0000-0000C4020000}"/>
+    <hyperlink ref="A720" r:id="rId709" xr:uid="{00000000-0004-0000-0000-0000C5020000}"/>
+    <hyperlink ref="A721" r:id="rId710" xr:uid="{00000000-0004-0000-0000-0000C6020000}"/>
+    <hyperlink ref="A722" r:id="rId711" xr:uid="{00000000-0004-0000-0000-0000C7020000}"/>
+    <hyperlink ref="A723" r:id="rId712" xr:uid="{00000000-0004-0000-0000-0000C8020000}"/>
+    <hyperlink ref="A724" r:id="rId713" xr:uid="{00000000-0004-0000-0000-0000C9020000}"/>
+    <hyperlink ref="A725" r:id="rId714" xr:uid="{00000000-0004-0000-0000-0000CA020000}"/>
+    <hyperlink ref="A726" r:id="rId715" xr:uid="{00000000-0004-0000-0000-0000CB020000}"/>
+    <hyperlink ref="A727" r:id="rId716" xr:uid="{00000000-0004-0000-0000-0000CC020000}"/>
+    <hyperlink ref="A728" r:id="rId717" xr:uid="{00000000-0004-0000-0000-0000CD020000}"/>
+    <hyperlink ref="A729" r:id="rId718" xr:uid="{00000000-0004-0000-0000-0000CE020000}"/>
+    <hyperlink ref="A730" r:id="rId719" xr:uid="{00000000-0004-0000-0000-0000CF020000}"/>
+    <hyperlink ref="A731" r:id="rId720" xr:uid="{00000000-0004-0000-0000-0000D0020000}"/>
+    <hyperlink ref="A732" r:id="rId721" xr:uid="{00000000-0004-0000-0000-0000D1020000}"/>
+    <hyperlink ref="A733" r:id="rId722" xr:uid="{00000000-0004-0000-0000-0000D2020000}"/>
+    <hyperlink ref="A734" r:id="rId723" xr:uid="{00000000-0004-0000-0000-0000D3020000}"/>
+    <hyperlink ref="A735" r:id="rId724" xr:uid="{00000000-0004-0000-0000-0000D4020000}"/>
+    <hyperlink ref="A736" r:id="rId725" xr:uid="{00000000-0004-0000-0000-0000D5020000}"/>
+    <hyperlink ref="A737" r:id="rId726" xr:uid="{00000000-0004-0000-0000-0000D6020000}"/>
+    <hyperlink ref="A738" r:id="rId727" xr:uid="{00000000-0004-0000-0000-0000D7020000}"/>
+    <hyperlink ref="A739" r:id="rId728" xr:uid="{00000000-0004-0000-0000-0000D8020000}"/>
+    <hyperlink ref="A740" r:id="rId729" xr:uid="{00000000-0004-0000-0000-0000D9020000}"/>
+    <hyperlink ref="A741" r:id="rId730" xr:uid="{00000000-0004-0000-0000-0000DA020000}"/>
+    <hyperlink ref="A742" r:id="rId731" xr:uid="{00000000-0004-0000-0000-0000DB020000}"/>
+    <hyperlink ref="A743" r:id="rId732" xr:uid="{00000000-0004-0000-0000-0000DC020000}"/>
+    <hyperlink ref="A744" r:id="rId733" xr:uid="{00000000-0004-0000-0000-0000DD020000}"/>
+    <hyperlink ref="A745" r:id="rId734" xr:uid="{00000000-0004-0000-0000-0000DE020000}"/>
+    <hyperlink ref="A746" r:id="rId735" xr:uid="{00000000-0004-0000-0000-0000DF020000}"/>
+    <hyperlink ref="A747" r:id="rId736" xr:uid="{00000000-0004-0000-0000-0000E0020000}"/>
+    <hyperlink ref="A748" r:id="rId737" xr:uid="{00000000-0004-0000-0000-0000E1020000}"/>
+    <hyperlink ref="A749" r:id="rId738" xr:uid="{00000000-0004-0000-0000-0000E2020000}"/>
+    <hyperlink ref="A750" r:id="rId739" xr:uid="{00000000-0004-0000-0000-0000E3020000}"/>
+    <hyperlink ref="A751" r:id="rId740" xr:uid="{00000000-0004-0000-0000-0000E4020000}"/>
+    <hyperlink ref="A752" r:id="rId741" xr:uid="{00000000-0004-0000-0000-0000E5020000}"/>
+    <hyperlink ref="A753" r:id="rId742" xr:uid="{00000000-0004-0000-0000-0000E6020000}"/>
+    <hyperlink ref="A754" r:id="rId743" xr:uid="{00000000-0004-0000-0000-0000E7020000}"/>
+    <hyperlink ref="A755" r:id="rId744" xr:uid="{00000000-0004-0000-0000-0000E8020000}"/>
+    <hyperlink ref="A756" r:id="rId745" xr:uid="{00000000-0004-0000-0000-0000E9020000}"/>
+    <hyperlink ref="A757" r:id="rId746" xr:uid="{00000000-0004-0000-0000-0000EA020000}"/>
+    <hyperlink ref="A758" r:id="rId747" xr:uid="{00000000-0004-0000-0000-0000EB020000}"/>
+    <hyperlink ref="A759" r:id="rId748" xr:uid="{00000000-0004-0000-0000-0000EC020000}"/>
+    <hyperlink ref="A760" r:id="rId749" xr:uid="{00000000-0004-0000-0000-0000ED020000}"/>
+    <hyperlink ref="A761" r:id="rId750" xr:uid="{00000000-0004-0000-0000-0000EE020000}"/>
+    <hyperlink ref="A762" r:id="rId751" xr:uid="{00000000-0004-0000-0000-0000EF020000}"/>
+    <hyperlink ref="A763" r:id="rId752" xr:uid="{00000000-0004-0000-0000-0000F0020000}"/>
+    <hyperlink ref="A764" r:id="rId753" xr:uid="{00000000-0004-0000-0000-0000F1020000}"/>
+    <hyperlink ref="A765" r:id="rId754" xr:uid="{00000000-0004-0000-0000-0000F2020000}"/>
+    <hyperlink ref="A766" r:id="rId755" xr:uid="{00000000-0004-0000-0000-0000F3020000}"/>
+    <hyperlink ref="A768" r:id="rId756" xr:uid="{00000000-0004-0000-0000-0000F4020000}"/>
+    <hyperlink ref="A769" r:id="rId757" xr:uid="{00000000-0004-0000-0000-0000F5020000}"/>
+    <hyperlink ref="A770" r:id="rId758" xr:uid="{00000000-0004-0000-0000-0000F6020000}"/>
+    <hyperlink ref="A771" r:id="rId759" xr:uid="{00000000-0004-0000-0000-0000F7020000}"/>
+    <hyperlink ref="A772" r:id="rId760" xr:uid="{00000000-0004-0000-0000-0000F8020000}"/>
+    <hyperlink ref="A773" r:id="rId761" xr:uid="{00000000-0004-0000-0000-0000F9020000}"/>
+    <hyperlink ref="A774" r:id="rId762" xr:uid="{00000000-0004-0000-0000-0000FA020000}"/>
+    <hyperlink ref="A775" r:id="rId763" xr:uid="{00000000-0004-0000-0000-0000FB020000}"/>
+    <hyperlink ref="A776" r:id="rId764" xr:uid="{00000000-0004-0000-0000-0000FC020000}"/>
+    <hyperlink ref="A777" r:id="rId765" xr:uid="{00000000-0004-0000-0000-0000FD020000}"/>
+    <hyperlink ref="A778" r:id="rId766" xr:uid="{00000000-0004-0000-0000-0000FE020000}"/>
+    <hyperlink ref="A779" r:id="rId767" xr:uid="{00000000-0004-0000-0000-0000FF020000}"/>
+    <hyperlink ref="A780" r:id="rId768" xr:uid="{00000000-0004-0000-0000-000000030000}"/>
+    <hyperlink ref="A781" r:id="rId769" xr:uid="{00000000-0004-0000-0000-000001030000}"/>
+    <hyperlink ref="A782" r:id="rId770" xr:uid="{00000000-0004-0000-0000-000002030000}"/>
+    <hyperlink ref="A783" r:id="rId771" xr:uid="{00000000-0004-0000-0000-000003030000}"/>
+    <hyperlink ref="A784" r:id="rId772" xr:uid="{00000000-0004-0000-0000-000004030000}"/>
+    <hyperlink ref="A785" r:id="rId773" xr:uid="{00000000-0004-0000-0000-000005030000}"/>
+    <hyperlink ref="A786" r:id="rId774" xr:uid="{00000000-0004-0000-0000-000006030000}"/>
+    <hyperlink ref="A787" r:id="rId775" xr:uid="{00000000-0004-0000-0000-000007030000}"/>
+    <hyperlink ref="A788" r:id="rId776" xr:uid="{00000000-0004-0000-0000-000008030000}"/>
+    <hyperlink ref="A789" r:id="rId777" xr:uid="{00000000-0004-0000-0000-000009030000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
